--- a/sircat/sources/STEREO_Level3_SIR_data.xlsx
+++ b/sircat/sources/STEREO_Level3_SIR_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1953">
   <si>
     <t>spacecraft</t>
   </si>
@@ -902,7 +902,7 @@
     <t>05 01/05 00:00</t>
   </si>
   <si>
-    <t>3 01/03 22:21</t>
+    <t>03 01/03 22:21</t>
   </si>
   <si>
     <t>10 01/10 03:00</t>
@@ -2090,8 +2090,7 @@
     <t>06 1/6 19:00</t>
   </si>
   <si>
-    <t xml:space="preserve">06 1/6 16:02
-</t>
+    <t>06 1/6 16:02</t>
   </si>
   <si>
     <t>15 1/15 8:00</t>
@@ -2235,7 +2234,7 @@
     <t>147 5/27 6:00</t>
   </si>
   <si>
-    <t>NaN</t>
+    <t>147 5/27 06:00</t>
   </si>
   <si>
     <t>153 6/2 04:00</t>
@@ -2511,7 +2510,7 @@
     <t>90 3/31 12:37</t>
   </si>
   <si>
-    <t>89 3/30 17:5</t>
+    <t>89 3/30 17:05</t>
   </si>
   <si>
     <t>115 4/25 00:00</t>
@@ -2547,7 +2546,7 @@
     <t>155 6/4 18:48</t>
   </si>
   <si>
-    <t>154 6/3 18:0</t>
+    <t>154 6/3 18:00</t>
   </si>
   <si>
     <t>160 6/9 22:40</t>
@@ -2664,9 +2663,6 @@
     <t>264 9/21 0:00</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
     <t>271 9/28 3:54</t>
   </si>
   <si>
@@ -3345,7 +3341,7 @@
     <t>08 1/8 18:29</t>
   </si>
   <si>
-    <t>08 1/8 5:4</t>
+    <t>08 1/8 5:04</t>
   </si>
   <si>
     <t>24 1/24 3:30</t>
@@ -3462,7 +3458,7 @@
     <t>130 5/9 12:00</t>
   </si>
   <si>
-    <t>129 5/8 17:1</t>
+    <t>129 5/8 17:01</t>
   </si>
   <si>
     <t>133 5/12 23:08</t>
@@ -3471,7 +3467,7 @@
     <t>135 5/14 13:40</t>
   </si>
   <si>
-    <t>134 5/13 3:3</t>
+    <t>134 5/13 3:03</t>
   </si>
   <si>
     <t>139 5/18 23:48</t>
@@ -3741,7 +3737,7 @@
     <t>137 5/17 00:05</t>
   </si>
   <si>
-    <t>136 5/16 13:8</t>
+    <t>136 5/16 13:08</t>
   </si>
   <si>
     <t>153 6/2 3:27</t>
@@ -4290,7 +4286,7 @@
     <t>115 4/25 17:15</t>
   </si>
   <si>
-    <t>115 4/25 13:9</t>
+    <t>115 4/25 13:09</t>
   </si>
   <si>
     <t>118 4/28 16:47</t>
@@ -4371,7 +4367,7 @@
     <t>02 1/2 17:38</t>
   </si>
   <si>
-    <t>01 1/1 18:2</t>
+    <t>01 1/1 18:02</t>
   </si>
   <si>
     <t>08 1/8 21:30</t>
@@ -4461,7 +4457,7 @@
     <t>135 5/15 6:00</t>
   </si>
   <si>
-    <t>133 5/13 14:6</t>
+    <t>133 5/13 14:06</t>
   </si>
   <si>
     <t>139 5/19 1:43</t>
@@ -4470,7 +4466,7 @@
     <t>140 5/20 6:00</t>
   </si>
   <si>
-    <t>139 5/19 14:8</t>
+    <t>139 5/19 14:08</t>
   </si>
   <si>
     <t>143 5/23 2:00</t>
@@ -4503,7 +4499,7 @@
     <t>171 6/20 8:30</t>
   </si>
   <si>
-    <t>170 6/19 13:2</t>
+    <t>170 6/19 13:02</t>
   </si>
   <si>
     <t>182 7/1 11:18</t>
@@ -4521,7 +4517,7 @@
     <t>196 7/15 16:00</t>
   </si>
   <si>
-    <t>195 7/14 13:2</t>
+    <t>195 7/14 13:02</t>
   </si>
   <si>
     <t>202 7/21 11:25</t>
@@ -4539,7 +4535,7 @@
     <t>212 7/31 10:00</t>
   </si>
   <si>
-    <t>211 7/30 18:7</t>
+    <t>211 7/30 18:07</t>
   </si>
   <si>
     <t>218 8/6 12:35</t>
@@ -4557,7 +4553,7 @@
     <t>221 8/9 22:16</t>
   </si>
   <si>
-    <t>221 8/9 3:8</t>
+    <t>221 8/9 3:08</t>
   </si>
   <si>
     <t>221 8/9 22:35</t>
@@ -4593,15 +4589,6 @@
     <t>256 9/13 07:42</t>
   </si>
   <si>
-    <t>265 9/22 14:00</t>
-  </si>
-  <si>
-    <t>265 9/22 23:20</t>
-  </si>
-  <si>
-    <t>265 9/22 17:35</t>
-  </si>
-  <si>
     <t>321 11/17 14:00</t>
   </si>
   <si>
@@ -4767,7 +4754,7 @@
     <t>62 3/2 7:49</t>
   </si>
   <si>
-    <t>61 3/1 8:6</t>
+    <t>61 3/1 8:06</t>
   </si>
   <si>
     <t>68 3/8 18:00</t>
@@ -4839,7 +4826,7 @@
     <t>116 4/25 13:45</t>
   </si>
   <si>
-    <t>116 4/25 7:7</t>
+    <t>116 4/25 7:07</t>
   </si>
   <si>
     <t>117 4/26 19:00</t>
@@ -4866,7 +4853,7 @@
     <t>129 5/8 18:00</t>
   </si>
   <si>
-    <t>128 5/7 17:8</t>
+    <t>128 5/7 17:08</t>
   </si>
   <si>
     <t>130 5/9 19:17</t>
@@ -4920,7 +4907,7 @@
     <t>165 6/13 5:30</t>
   </si>
   <si>
-    <t>163 6/11 23:8</t>
+    <t>163 6/11 23:08</t>
   </si>
   <si>
     <t>169 6/17 16:00</t>
@@ -4947,7 +4934,7 @@
     <t>183 7/1 0:00</t>
   </si>
   <si>
-    <t>182 6/30 5:7</t>
+    <t>182 6/30 5:07</t>
   </si>
   <si>
     <t>189 7/7 5:00</t>
@@ -4956,7 +4943,7 @@
     <t>191 7/9 5:00</t>
   </si>
   <si>
-    <t>190 7/8 0:7</t>
+    <t>190 7/8 0:07</t>
   </si>
   <si>
     <t>198 7/16 19:00</t>
@@ -5124,7 +5111,7 @@
     <t>318 11/13 17:33</t>
   </si>
   <si>
-    <t>317 11/12 10:0</t>
+    <t>317 11/12 10:00</t>
   </si>
   <si>
     <t>326 11/21 16:00</t>
@@ -5241,7 +5228,7 @@
     <t>36 2/5 22:00</t>
   </si>
   <si>
-    <t>35 2/4 16:4</t>
+    <t>35 2/4 16:04</t>
   </si>
   <si>
     <t>42 2/11 17:46</t>
@@ -5265,7 +5252,7 @@
     <t>57 2/26 18:00</t>
   </si>
   <si>
-    <t>57 2/26 1:5</t>
+    <t>57 2/26 1:05</t>
   </si>
   <si>
     <t>58 2/27 5:30</t>
@@ -5274,7 +5261,7 @@
     <t>59 2/28 19:00</t>
   </si>
   <si>
-    <t>58 2/27 16:5</t>
+    <t>58 2/27 16:05</t>
   </si>
   <si>
     <t>61 3/2 8:00</t>
@@ -5283,7 +5270,7 @@
     <t>63 3/4 13:00</t>
   </si>
   <si>
-    <t>61 3/2 21:9</t>
+    <t>61 3/2 21:09</t>
   </si>
   <si>
     <t>69 3/10 3:03</t>
@@ -5409,7 +5396,7 @@
     <t>176 6/25 22:00</t>
   </si>
   <si>
-    <t>175 6/24 4:6</t>
+    <t>175 6/24 4:06</t>
   </si>
   <si>
     <t>182 7/1 0:00</t>
@@ -5568,7 +5555,7 @@
     <t>310 11/6 16:00</t>
   </si>
   <si>
-    <t>309 11/5 12:2</t>
+    <t>309 11/5 12:02</t>
   </si>
   <si>
     <t>315 11/11 20:00</t>
@@ -5604,7 +5591,7 @@
     <t>329 11/25 7:00</t>
   </si>
   <si>
-    <t>328 11/24 12:9</t>
+    <t>328 11/24 12:09</t>
   </si>
   <si>
     <t>335 12/1 18:00</t>
@@ -5625,7 +5612,7 @@
     <t>350 12/16 0:00</t>
   </si>
   <si>
-    <t>348 12/14 19:3</t>
+    <t>348 12/14 19:03</t>
   </si>
   <si>
     <t>354 12/20 4:00</t>
@@ -5643,7 +5630,7 @@
     <t>365 12/31 22:00</t>
   </si>
   <si>
-    <t>364 12/30 21:1</t>
+    <t>364 12/30 21:01</t>
   </si>
   <si>
     <t>09 1/9 15:00</t>
@@ -5652,7 +5639,7 @@
     <t>10 1/10 22:00</t>
   </si>
   <si>
-    <t>10 1/10 4:8</t>
+    <t>10 1/10 4:08</t>
   </si>
   <si>
     <t>17 1/17 17:39</t>
@@ -5733,7 +5720,7 @@
     <t>79 3/20 20:24</t>
   </si>
   <si>
-    <t>79 3/20 11:8</t>
+    <t>79 3/20 11:08</t>
   </si>
   <si>
     <t>83 3/24 8:10</t>
@@ -5847,7 +5834,7 @@
     <t>170 6/19 12:00</t>
   </si>
   <si>
-    <t>169 6/18 23:7</t>
+    <t>169 6/18 23:07</t>
   </si>
   <si>
     <t>191 7/10 14:00</t>
@@ -7073,7 +7060,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G656"/>
+  <dimension ref="A1:G655"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -13865,7 +13852,7 @@
         <v>2011</v>
       </c>
       <c r="F295" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G295" s="3">
         <v>2011</v>
@@ -13876,19 +13863,19 @@
         <v>7</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C296" s="3">
         <v>2011</v>
       </c>
       <c r="D296" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E296" s="3">
         <v>2011</v>
       </c>
       <c r="F296" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G296" s="3">
         <v>2011</v>
@@ -13899,19 +13886,19 @@
         <v>7</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C297" s="3">
         <v>2011</v>
       </c>
       <c r="D297" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E297" s="3">
         <v>2011</v>
       </c>
       <c r="F297" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G297" s="3">
         <v>2011</v>
@@ -13922,19 +13909,19 @@
         <v>7</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C298" s="3">
         <v>2011</v>
       </c>
       <c r="D298" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E298" s="3">
         <v>2011</v>
       </c>
       <c r="F298" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G298" s="3">
         <v>2011</v>
@@ -13945,19 +13932,19 @@
         <v>7</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C299" s="3">
         <v>2011</v>
       </c>
       <c r="D299" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E299" s="3">
         <v>2011</v>
       </c>
       <c r="F299" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G299" s="3">
         <v>2011</v>
@@ -13968,19 +13955,19 @@
         <v>7</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C300" s="3">
         <v>2011</v>
       </c>
       <c r="D300" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E300" s="3">
         <v>2011</v>
       </c>
       <c r="F300" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G300" s="3">
         <v>2011</v>
@@ -13991,19 +13978,19 @@
         <v>7</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C301" s="3">
         <v>2011</v>
       </c>
       <c r="D301" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E301" s="3">
         <v>2011</v>
       </c>
       <c r="F301" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G301" s="3">
         <v>2011</v>
@@ -14014,19 +14001,19 @@
         <v>7</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C302" s="3">
         <v>2011</v>
       </c>
       <c r="D302" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E302" s="3">
         <v>2011</v>
       </c>
       <c r="F302" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G302" s="3">
         <v>2011</v>
@@ -14037,19 +14024,19 @@
         <v>7</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C303" s="3">
         <v>2011</v>
       </c>
       <c r="D303" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E303" s="3">
         <v>2011</v>
       </c>
       <c r="F303" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G303" s="3">
         <v>2011</v>
@@ -14060,19 +14047,19 @@
         <v>7</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C304" s="3">
         <v>2011</v>
       </c>
       <c r="D304" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E304" s="3">
         <v>2011</v>
       </c>
       <c r="F304" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G304" s="3">
         <v>2011</v>
@@ -14083,19 +14070,19 @@
         <v>7</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C305" s="3">
         <v>2011</v>
       </c>
       <c r="D305" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E305" s="3">
         <v>2011</v>
       </c>
       <c r="F305" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G305" s="3">
         <v>2011</v>
@@ -14106,19 +14093,19 @@
         <v>7</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C306" s="3">
         <v>2011</v>
       </c>
       <c r="D306" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E306" s="3">
         <v>2011</v>
       </c>
       <c r="F306" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G306" s="3">
         <v>2011</v>
@@ -14129,19 +14116,19 @@
         <v>7</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C307" s="3">
         <v>2011</v>
       </c>
       <c r="D307" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E307" s="3">
         <v>2011</v>
       </c>
       <c r="F307" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G307" s="3">
         <v>2011</v>
@@ -14152,19 +14139,19 @@
         <v>7</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C308" s="3">
         <v>2011</v>
       </c>
       <c r="D308" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E308" s="3">
         <v>2011</v>
       </c>
       <c r="F308" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G308" s="3">
         <v>2011</v>
@@ -14175,19 +14162,19 @@
         <v>11</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C309" s="3">
         <v>2011</v>
       </c>
       <c r="D309" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E309" s="3">
         <v>2011</v>
       </c>
       <c r="F309" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G309" s="3">
         <v>2011</v>
@@ -14198,19 +14185,19 @@
         <v>11</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C310" s="3">
         <v>2011</v>
       </c>
       <c r="D310" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E310" s="3">
         <v>2011</v>
       </c>
       <c r="F310" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G310" s="3">
         <v>2011</v>
@@ -14221,19 +14208,19 @@
         <v>11</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C311" s="3">
         <v>2011</v>
       </c>
       <c r="D311" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E311" s="3">
         <v>2011</v>
       </c>
       <c r="F311" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G311" s="3">
         <v>2011</v>
@@ -14244,19 +14231,19 @@
         <v>11</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C312" s="3">
         <v>2011</v>
       </c>
       <c r="D312" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E312" s="3">
         <v>2011</v>
       </c>
       <c r="F312" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G312" s="3">
         <v>2011</v>
@@ -14267,19 +14254,19 @@
         <v>11</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C313" s="3">
         <v>2011</v>
       </c>
       <c r="D313" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E313" s="3">
         <v>2011</v>
       </c>
       <c r="F313" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G313" s="3">
         <v>2011</v>
@@ -14290,19 +14277,19 @@
         <v>11</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C314" s="3">
         <v>2011</v>
       </c>
       <c r="D314" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E314" s="3">
         <v>2011</v>
       </c>
       <c r="F314" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G314" s="3">
         <v>2011</v>
@@ -14313,19 +14300,19 @@
         <v>11</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C315" s="3">
         <v>2011</v>
       </c>
       <c r="D315" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E315" s="3">
         <v>2011</v>
       </c>
       <c r="F315" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G315" s="3">
         <v>2011</v>
@@ -14336,19 +14323,19 @@
         <v>11</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C316" s="3">
         <v>2011</v>
       </c>
       <c r="D316" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E316" s="3">
         <v>2011</v>
       </c>
       <c r="F316" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G316" s="3">
         <v>2011</v>
@@ -14359,19 +14346,19 @@
         <v>11</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C317" s="3">
         <v>2011</v>
       </c>
       <c r="D317" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E317" s="3">
         <v>2011</v>
       </c>
       <c r="F317" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G317" s="3">
         <v>2011</v>
@@ -14382,19 +14369,19 @@
         <v>11</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C318" s="3">
         <v>2011</v>
       </c>
       <c r="D318" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E318" s="3">
         <v>2011</v>
       </c>
       <c r="F318" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G318" s="3">
         <v>2011</v>
@@ -14405,19 +14392,19 @@
         <v>11</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C319" s="3">
         <v>2011</v>
       </c>
       <c r="D319" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E319" s="3">
         <v>2011</v>
       </c>
       <c r="F319" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G319" s="3">
         <v>2011</v>
@@ -14428,19 +14415,19 @@
         <v>11</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C320" s="3">
         <v>2011</v>
       </c>
       <c r="D320" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E320" s="3">
         <v>2011</v>
       </c>
       <c r="F320" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G320" s="3">
         <v>2011</v>
@@ -14451,19 +14438,19 @@
         <v>11</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C321" s="3">
         <v>2011</v>
       </c>
       <c r="D321" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E321" s="3">
         <v>2011</v>
       </c>
       <c r="F321" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G321" s="3">
         <v>2011</v>
@@ -14474,19 +14461,19 @@
         <v>11</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C322" s="3">
         <v>2011</v>
       </c>
       <c r="D322" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E322" s="3">
         <v>2011</v>
       </c>
       <c r="F322" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G322" s="3">
         <v>2011</v>
@@ -14497,19 +14484,19 @@
         <v>11</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C323" s="3">
         <v>2011</v>
       </c>
       <c r="D323" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E323" s="3">
         <v>2011</v>
       </c>
       <c r="F323" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G323" s="3">
         <v>2011</v>
@@ -14520,19 +14507,19 @@
         <v>11</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C324" s="3">
         <v>2011</v>
       </c>
       <c r="D324" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E324" s="3">
         <v>2011</v>
       </c>
       <c r="F324" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G324" s="3">
         <v>2011</v>
@@ -14543,19 +14530,19 @@
         <v>11</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C325" s="3">
         <v>2011</v>
       </c>
       <c r="D325" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E325" s="3">
         <v>2011</v>
       </c>
       <c r="F325" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G325" s="3">
         <v>2011</v>
@@ -14566,19 +14553,19 @@
         <v>11</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C326" s="3">
         <v>2011</v>
       </c>
       <c r="D326" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E326" s="3">
         <v>2011</v>
       </c>
       <c r="F326" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G326" s="3">
         <v>2011</v>
@@ -14589,19 +14576,19 @@
         <v>11</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C327" s="3">
         <v>2011</v>
       </c>
       <c r="D327" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E327" s="3">
         <v>2011</v>
       </c>
       <c r="F327" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G327" s="3">
         <v>2011</v>
@@ -14612,19 +14599,19 @@
         <v>11</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C328" s="3">
         <v>2011</v>
       </c>
       <c r="D328" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E328" s="3">
         <v>2011</v>
       </c>
       <c r="F328" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G328" s="3">
         <v>2011</v>
@@ -14635,19 +14622,19 @@
         <v>11</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C329" s="3">
         <v>2011</v>
       </c>
       <c r="D329" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E329" s="3">
         <v>2011</v>
       </c>
       <c r="F329" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G329" s="3">
         <v>2011</v>
@@ -14658,19 +14645,19 @@
         <v>11</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C330" s="3">
         <v>2011</v>
       </c>
       <c r="D330" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E330" s="3">
         <v>2011</v>
       </c>
       <c r="F330" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G330" s="3">
         <v>2011</v>
@@ -14681,19 +14668,19 @@
         <v>11</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C331" s="3">
         <v>2011</v>
       </c>
       <c r="D331" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E331" s="3">
         <v>2011</v>
       </c>
       <c r="F331" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G331" s="3">
         <v>2011</v>
@@ -14704,19 +14691,19 @@
         <v>11</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C332" s="3">
         <v>2011</v>
       </c>
       <c r="D332" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E332" s="3">
         <v>2011</v>
       </c>
       <c r="F332" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G332" s="3">
         <v>2011</v>
@@ -14727,19 +14714,19 @@
         <v>11</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C333" s="3">
         <v>2011</v>
       </c>
       <c r="D333" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E333" s="3">
         <v>2011</v>
       </c>
       <c r="F333" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G333" s="3">
         <v>2011</v>
@@ -14750,19 +14737,19 @@
         <v>11</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C334" s="3">
         <v>2011</v>
       </c>
       <c r="D334" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E334" s="3">
         <v>2011</v>
       </c>
       <c r="F334" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G334" s="3">
         <v>2011</v>
@@ -14773,19 +14760,19 @@
         <v>11</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C335" s="3">
         <v>2011</v>
       </c>
       <c r="D335" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E335" s="3">
         <v>2011</v>
       </c>
       <c r="F335" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G335" s="3">
         <v>2011</v>
@@ -14796,19 +14783,19 @@
         <v>11</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C336" s="3">
         <v>2011</v>
       </c>
       <c r="D336" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E336" s="3">
         <v>2011</v>
       </c>
       <c r="F336" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G336" s="3">
         <v>2011</v>
@@ -14819,19 +14806,19 @@
         <v>11</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C337" s="3">
         <v>2011</v>
       </c>
       <c r="D337" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E337" s="3">
         <v>2011</v>
       </c>
       <c r="F337" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G337" s="3">
         <v>2011</v>
@@ -14842,19 +14829,19 @@
         <v>11</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C338" s="3">
         <v>2011</v>
       </c>
       <c r="D338" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E338" s="3">
         <v>2011</v>
       </c>
       <c r="F338" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G338" s="3">
         <v>2011</v>
@@ -14865,19 +14852,19 @@
         <v>7</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C339" s="3">
         <v>2012</v>
       </c>
       <c r="D339" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E339" s="3">
         <v>2012</v>
       </c>
       <c r="F339" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G339" s="3">
         <v>2012</v>
@@ -14888,19 +14875,19 @@
         <v>7</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C340" s="3">
         <v>2012</v>
       </c>
       <c r="D340" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E340" s="3">
         <v>2012</v>
       </c>
       <c r="F340" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G340" s="3">
         <v>2012</v>
@@ -14911,19 +14898,19 @@
         <v>7</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C341" s="3">
         <v>2012</v>
       </c>
       <c r="D341" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E341" s="3">
         <v>2012</v>
       </c>
       <c r="F341" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G341" s="3">
         <v>2012</v>
@@ -14934,19 +14921,19 @@
         <v>7</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C342" s="3">
         <v>2012</v>
       </c>
       <c r="D342" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E342" s="3">
         <v>2012</v>
       </c>
       <c r="F342" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G342" s="3">
         <v>2012</v>
@@ -14963,13 +14950,13 @@
         <v>2012</v>
       </c>
       <c r="D343" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E343" s="3">
         <v>2012</v>
       </c>
       <c r="F343" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G343" s="3">
         <v>2012</v>
@@ -14980,19 +14967,19 @@
         <v>7</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C344" s="3">
         <v>2012</v>
       </c>
       <c r="D344" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E344" s="3">
         <v>2012</v>
       </c>
       <c r="F344" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G344" s="3">
         <v>2012</v>
@@ -15003,19 +14990,19 @@
         <v>7</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C345" s="3">
         <v>2012</v>
       </c>
       <c r="D345" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E345" s="3">
         <v>2012</v>
       </c>
       <c r="F345" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G345" s="3">
         <v>2012</v>
@@ -15026,19 +15013,19 @@
         <v>7</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C346" s="3">
         <v>2012</v>
       </c>
       <c r="D346" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E346" s="3">
         <v>2012</v>
       </c>
       <c r="F346" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G346" s="3">
         <v>2012</v>
@@ -15049,19 +15036,19 @@
         <v>7</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C347" s="3">
         <v>2012</v>
       </c>
       <c r="D347" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E347" s="3">
         <v>2012</v>
       </c>
       <c r="F347" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G347" s="3">
         <v>2012</v>
@@ -15072,19 +15059,19 @@
         <v>7</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C348" s="3">
         <v>2012</v>
       </c>
       <c r="D348" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E348" s="3">
         <v>2012</v>
       </c>
       <c r="F348" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G348" s="3">
         <v>2012</v>
@@ -15095,19 +15082,19 @@
         <v>7</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C349" s="3">
         <v>2012</v>
       </c>
       <c r="D349" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E349" s="3">
         <v>2012</v>
       </c>
       <c r="F349" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G349" s="3">
         <v>2012</v>
@@ -15118,19 +15105,19 @@
         <v>7</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C350" s="3">
         <v>2012</v>
       </c>
       <c r="D350" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E350" s="3">
         <v>2012</v>
       </c>
       <c r="F350" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G350" s="3">
         <v>2012</v>
@@ -15141,19 +15128,19 @@
         <v>7</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C351" s="3">
         <v>2012</v>
       </c>
       <c r="D351" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E351" s="3">
         <v>2012</v>
       </c>
       <c r="F351" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G351" s="3">
         <v>2012</v>
@@ -15164,19 +15151,19 @@
         <v>7</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C352" s="3">
         <v>2012</v>
       </c>
       <c r="D352" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E352" s="3">
         <v>2012</v>
       </c>
       <c r="F352" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G352" s="3">
         <v>2012</v>
@@ -15187,19 +15174,19 @@
         <v>7</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C353" s="3">
         <v>2012</v>
       </c>
       <c r="D353" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E353" s="3">
         <v>2012</v>
       </c>
       <c r="F353" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G353" s="3">
         <v>2012</v>
@@ -15210,19 +15197,19 @@
         <v>7</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C354" s="3">
         <v>2012</v>
       </c>
       <c r="D354" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E354" s="3">
         <v>2012</v>
       </c>
       <c r="F354" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G354" s="3">
         <v>2012</v>
@@ -15233,19 +15220,19 @@
         <v>7</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C355" s="3">
         <v>2012</v>
       </c>
       <c r="D355" t="s" s="2">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E355" s="3">
         <v>2012</v>
       </c>
       <c r="F355" t="s" s="2">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G355" s="3">
         <v>2012</v>
@@ -15256,19 +15243,19 @@
         <v>7</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C356" s="3">
         <v>2012</v>
       </c>
       <c r="D356" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E356" s="3">
         <v>2012</v>
       </c>
       <c r="F356" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G356" s="3">
         <v>2012</v>
@@ -15279,19 +15266,19 @@
         <v>7</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C357" s="3">
         <v>2012</v>
       </c>
       <c r="D357" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E357" s="3">
         <v>2012</v>
       </c>
       <c r="F357" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G357" s="3">
         <v>2012</v>
@@ -15302,19 +15289,19 @@
         <v>7</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C358" s="3">
         <v>2012</v>
       </c>
       <c r="D358" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E358" s="3">
         <v>2012</v>
       </c>
       <c r="F358" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G358" s="3">
         <v>2012</v>
@@ -15325,19 +15312,19 @@
         <v>7</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C359" s="3">
         <v>2012</v>
       </c>
       <c r="D359" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E359" s="3">
         <v>2012</v>
       </c>
       <c r="F359" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G359" s="3">
         <v>2012</v>
@@ -15348,19 +15335,19 @@
         <v>7</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C360" s="3">
         <v>2012</v>
       </c>
       <c r="D360" t="s" s="2">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E360" s="3">
         <v>2012</v>
       </c>
       <c r="F360" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G360" s="3">
         <v>2012</v>
@@ -15371,19 +15358,19 @@
         <v>7</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C361" s="3">
         <v>2012</v>
       </c>
       <c r="D361" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E361" s="3">
         <v>2012</v>
       </c>
       <c r="F361" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G361" s="3">
         <v>2012</v>
@@ -15394,19 +15381,19 @@
         <v>7</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C362" s="3">
         <v>2012</v>
       </c>
       <c r="D362" t="s" s="2">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E362" s="3">
         <v>2012</v>
       </c>
       <c r="F362" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G362" s="3">
         <v>2012</v>
@@ -15417,19 +15404,19 @@
         <v>7</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C363" s="3">
         <v>2012</v>
       </c>
       <c r="D363" t="s" s="2">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E363" s="3">
         <v>2012</v>
       </c>
       <c r="F363" t="s" s="2">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G363" s="3">
         <v>2012</v>
@@ -15440,19 +15427,19 @@
         <v>7</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C364" s="3">
         <v>2012</v>
       </c>
       <c r="D364" t="s" s="2">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E364" s="3">
         <v>2012</v>
       </c>
       <c r="F364" t="s" s="2">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G364" s="3">
         <v>2012</v>
@@ -15463,19 +15450,19 @@
         <v>7</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C365" s="3">
         <v>2012</v>
       </c>
       <c r="D365" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E365" s="3">
         <v>2012</v>
       </c>
       <c r="F365" t="s" s="2">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G365" s="3">
         <v>2012</v>
@@ -15486,19 +15473,19 @@
         <v>7</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C366" s="3">
         <v>2012</v>
       </c>
       <c r="D366" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E366" s="3">
         <v>2012</v>
       </c>
       <c r="F366" t="s" s="2">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G366" s="3">
         <v>2012</v>
@@ -15509,19 +15496,19 @@
         <v>7</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C367" s="3">
         <v>2012</v>
       </c>
       <c r="D367" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E367" s="3">
         <v>2012</v>
       </c>
       <c r="F367" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G367" s="3">
         <v>2012</v>
@@ -15532,19 +15519,19 @@
         <v>7</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C368" s="3">
         <v>2012</v>
       </c>
       <c r="D368" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E368" s="3">
         <v>2012</v>
       </c>
       <c r="F368" t="s" s="2">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G368" s="3">
         <v>2012</v>
@@ -15555,19 +15542,19 @@
         <v>7</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C369" s="3">
         <v>2012</v>
       </c>
       <c r="D369" t="s" s="2">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E369" s="3">
         <v>2012</v>
       </c>
       <c r="F369" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G369" s="3">
         <v>2012</v>
@@ -15578,19 +15565,19 @@
         <v>7</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C370" s="3">
         <v>2012</v>
       </c>
       <c r="D370" t="s" s="2">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E370" s="3">
         <v>2012</v>
       </c>
       <c r="F370" t="s" s="2">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G370" s="3">
         <v>2012</v>
@@ -15601,19 +15588,19 @@
         <v>11</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C371" s="3">
         <v>2012</v>
       </c>
       <c r="D371" t="s" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E371" s="3">
         <v>2012</v>
       </c>
       <c r="F371" t="s" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G371" s="3">
         <v>2012</v>
@@ -15624,19 +15611,19 @@
         <v>11</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C372" s="3">
         <v>2012</v>
       </c>
       <c r="D372" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E372" s="3">
         <v>2012</v>
       </c>
       <c r="F372" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G372" s="3">
         <v>2012</v>
@@ -15647,19 +15634,19 @@
         <v>11</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C373" s="3">
         <v>2012</v>
       </c>
       <c r="D373" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E373" s="3">
         <v>2012</v>
       </c>
       <c r="F373" t="s" s="2">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G373" s="3">
         <v>2012</v>
@@ -15670,19 +15657,19 @@
         <v>11</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C374" s="3">
         <v>2012</v>
       </c>
       <c r="D374" t="s" s="2">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E374" s="3">
         <v>2012</v>
       </c>
       <c r="F374" t="s" s="2">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G374" s="3">
         <v>2012</v>
@@ -15693,19 +15680,19 @@
         <v>11</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C375" s="3">
         <v>2012</v>
       </c>
       <c r="D375" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E375" s="3">
         <v>2012</v>
       </c>
       <c r="F375" t="s" s="2">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G375" s="3">
         <v>2012</v>
@@ -15716,19 +15703,19 @@
         <v>11</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C376" s="3">
         <v>2012</v>
       </c>
       <c r="D376" t="s" s="2">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E376" s="3">
         <v>2012</v>
       </c>
       <c r="F376" t="s" s="2">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G376" s="3">
         <v>2012</v>
@@ -15739,19 +15726,19 @@
         <v>11</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C377" s="3">
         <v>2012</v>
       </c>
       <c r="D377" t="s" s="2">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E377" s="3">
         <v>2012</v>
       </c>
       <c r="F377" t="s" s="2">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G377" s="3">
         <v>2012</v>
@@ -15762,19 +15749,19 @@
         <v>11</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C378" s="3">
         <v>2012</v>
       </c>
       <c r="D378" t="s" s="2">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E378" s="3">
         <v>2012</v>
       </c>
       <c r="F378" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G378" s="3">
         <v>2012</v>
@@ -15785,19 +15772,19 @@
         <v>11</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C379" s="3">
         <v>2012</v>
       </c>
       <c r="D379" t="s" s="2">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E379" s="3">
         <v>2012</v>
       </c>
       <c r="F379" t="s" s="2">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G379" s="3">
         <v>2012</v>
@@ -15808,19 +15795,19 @@
         <v>11</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C380" s="3">
         <v>2012</v>
       </c>
       <c r="D380" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E380" s="3">
         <v>2012</v>
       </c>
       <c r="F380" t="s" s="2">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G380" s="3">
         <v>2012</v>
@@ -15831,19 +15818,19 @@
         <v>11</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C381" s="3">
         <v>2012</v>
       </c>
       <c r="D381" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E381" s="3">
         <v>2012</v>
       </c>
       <c r="F381" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G381" s="3">
         <v>2012</v>
@@ -15854,19 +15841,19 @@
         <v>11</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C382" s="3">
         <v>2012</v>
       </c>
       <c r="D382" t="s" s="2">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E382" s="3">
         <v>2012</v>
       </c>
       <c r="F382" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G382" s="3">
         <v>2012</v>
@@ -15877,19 +15864,19 @@
         <v>11</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C383" s="3">
         <v>2012</v>
       </c>
       <c r="D383" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E383" s="3">
         <v>2012</v>
       </c>
       <c r="F383" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G383" s="3">
         <v>2012</v>
@@ -15900,19 +15887,19 @@
         <v>11</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C384" s="3">
         <v>2012</v>
       </c>
       <c r="D384" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E384" s="3">
         <v>2012</v>
       </c>
       <c r="F384" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G384" s="3">
         <v>2012</v>
@@ -15923,19 +15910,19 @@
         <v>11</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C385" s="3">
         <v>2012</v>
       </c>
       <c r="D385" t="s" s="2">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E385" s="3">
         <v>2012</v>
       </c>
       <c r="F385" t="s" s="2">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G385" s="3">
         <v>2012</v>
@@ -15946,19 +15933,19 @@
         <v>11</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C386" s="3">
         <v>2012</v>
       </c>
       <c r="D386" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E386" s="3">
         <v>2012</v>
       </c>
       <c r="F386" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G386" s="3">
         <v>2012</v>
@@ -15969,19 +15956,19 @@
         <v>11</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C387" s="3">
         <v>2012</v>
       </c>
       <c r="D387" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E387" s="3">
         <v>2012</v>
       </c>
       <c r="F387" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G387" s="3">
         <v>2012</v>
@@ -15992,19 +15979,19 @@
         <v>11</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C388" s="3">
         <v>2012</v>
       </c>
       <c r="D388" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E388" s="3">
         <v>2012</v>
       </c>
       <c r="F388" t="s" s="2">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G388" s="3">
         <v>2012</v>
@@ -16015,19 +16002,19 @@
         <v>11</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C389" s="3">
         <v>2012</v>
       </c>
       <c r="D389" t="s" s="2">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E389" s="3">
         <v>2012</v>
       </c>
       <c r="F389" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G389" s="3">
         <v>2012</v>
@@ -16038,19 +16025,19 @@
         <v>11</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C390" s="3">
         <v>2012</v>
       </c>
       <c r="D390" t="s" s="2">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E390" s="3">
         <v>2012</v>
       </c>
       <c r="F390" t="s" s="2">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G390" s="3">
         <v>2012</v>
@@ -16061,19 +16048,19 @@
         <v>11</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C391" s="3">
         <v>2012</v>
       </c>
       <c r="D391" t="s" s="2">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E391" s="3">
         <v>2012</v>
       </c>
       <c r="F391" t="s" s="2">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G391" s="3">
         <v>2012</v>
@@ -16084,19 +16071,19 @@
         <v>11</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C392" s="3">
         <v>2012</v>
       </c>
       <c r="D392" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E392" s="3">
         <v>2012</v>
       </c>
       <c r="F392" t="s" s="2">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="G392" s="3">
         <v>2012</v>
@@ -16107,19 +16094,19 @@
         <v>11</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C393" s="3">
         <v>2012</v>
       </c>
       <c r="D393" t="s" s="2">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E393" s="3">
         <v>2012</v>
       </c>
       <c r="F393" t="s" s="2">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G393" s="3">
         <v>2012</v>
@@ -16130,19 +16117,19 @@
         <v>11</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C394" s="3">
         <v>2012</v>
       </c>
       <c r="D394" t="s" s="2">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E394" s="3">
         <v>2012</v>
       </c>
       <c r="F394" t="s" s="2">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G394" s="3">
         <v>2012</v>
@@ -16153,19 +16140,19 @@
         <v>11</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C395" s="3">
         <v>2012</v>
       </c>
       <c r="D395" t="s" s="2">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E395" s="3">
         <v>2012</v>
       </c>
       <c r="F395" t="s" s="2">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G395" s="3">
         <v>2012</v>
@@ -16176,19 +16163,19 @@
         <v>11</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C396" s="3">
         <v>2012</v>
       </c>
       <c r="D396" t="s" s="2">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E396" s="3">
         <v>2012</v>
       </c>
       <c r="F396" t="s" s="2">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G396" s="3">
         <v>2012</v>
@@ -16199,19 +16186,19 @@
         <v>11</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C397" s="3">
         <v>2012</v>
       </c>
       <c r="D397" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E397" s="3">
         <v>2012</v>
       </c>
       <c r="F397" t="s" s="2">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G397" s="3">
         <v>2012</v>
@@ -16222,19 +16209,19 @@
         <v>11</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C398" s="3">
         <v>2012</v>
       </c>
       <c r="D398" t="s" s="2">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E398" s="3">
         <v>2012</v>
       </c>
       <c r="F398" t="s" s="2">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G398" s="3">
         <v>2012</v>
@@ -16245,19 +16232,19 @@
         <v>11</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C399" s="3">
         <v>2012</v>
       </c>
       <c r="D399" t="s" s="2">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E399" s="3">
         <v>2012</v>
       </c>
       <c r="F399" t="s" s="2">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G399" s="3">
         <v>2012</v>
@@ -16268,19 +16255,19 @@
         <v>11</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C400" s="3">
         <v>2012</v>
       </c>
       <c r="D400" t="s" s="2">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E400" s="3">
         <v>2012</v>
       </c>
       <c r="F400" t="s" s="2">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G400" s="3">
         <v>2012</v>
@@ -16291,19 +16278,19 @@
         <v>11</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C401" s="3">
         <v>2012</v>
       </c>
       <c r="D401" t="s" s="2">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E401" s="3">
         <v>2012</v>
       </c>
       <c r="F401" t="s" s="2">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G401" s="3">
         <v>2012</v>
@@ -16314,19 +16301,19 @@
         <v>11</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C402" s="3">
         <v>2012</v>
       </c>
       <c r="D402" t="s" s="2">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E402" s="3">
         <v>2012</v>
       </c>
       <c r="F402" t="s" s="2">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G402" s="3">
         <v>2012</v>
@@ -16337,19 +16324,19 @@
         <v>11</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C403" s="3">
         <v>2012</v>
       </c>
       <c r="D403" t="s" s="2">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E403" s="3">
         <v>2012</v>
       </c>
       <c r="F403" t="s" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G403" s="3">
         <v>2012</v>
@@ -16360,19 +16347,19 @@
         <v>11</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C404" s="3">
         <v>2012</v>
       </c>
       <c r="D404" t="s" s="2">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E404" s="3">
         <v>2012</v>
       </c>
       <c r="F404" t="s" s="2">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G404" s="3">
         <v>2012</v>
@@ -16383,19 +16370,19 @@
         <v>7</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C405" s="3">
         <v>2013</v>
       </c>
       <c r="D405" t="s" s="2">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E405" s="3">
         <v>2013</v>
       </c>
       <c r="F405" t="s" s="2">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G405" s="3">
         <v>2013</v>
@@ -16406,19 +16393,19 @@
         <v>7</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C406" s="3">
         <v>2013</v>
       </c>
       <c r="D406" t="s" s="2">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E406" s="3">
         <v>2013</v>
       </c>
       <c r="F406" t="s" s="2">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G406" s="3">
         <v>2013</v>
@@ -16429,19 +16416,19 @@
         <v>7</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C407" s="3">
         <v>2013</v>
       </c>
       <c r="D407" t="s" s="2">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E407" s="3">
         <v>2013</v>
       </c>
       <c r="F407" t="s" s="2">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G407" s="3">
         <v>2013</v>
@@ -16452,19 +16439,19 @@
         <v>7</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C408" s="3">
         <v>2013</v>
       </c>
       <c r="D408" t="s" s="2">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E408" s="3">
         <v>2013</v>
       </c>
       <c r="F408" t="s" s="2">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G408" s="3">
         <v>2013</v>
@@ -16475,19 +16462,19 @@
         <v>7</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C409" s="3">
         <v>2013</v>
       </c>
       <c r="D409" t="s" s="2">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E409" s="3">
         <v>2013</v>
       </c>
       <c r="F409" t="s" s="2">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G409" s="3">
         <v>2013</v>
@@ -16498,19 +16485,19 @@
         <v>7</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C410" s="3">
         <v>2013</v>
       </c>
       <c r="D410" t="s" s="2">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E410" s="3">
         <v>2013</v>
       </c>
       <c r="F410" t="s" s="2">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G410" s="3">
         <v>2013</v>
@@ -16521,19 +16508,19 @@
         <v>7</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C411" s="3">
         <v>2013</v>
       </c>
       <c r="D411" t="s" s="2">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E411" s="3">
         <v>2013</v>
       </c>
       <c r="F411" t="s" s="2">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G411" s="3">
         <v>2013</v>
@@ -16544,19 +16531,19 @@
         <v>7</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C412" s="3">
         <v>2013</v>
       </c>
       <c r="D412" t="s" s="2">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E412" s="3">
         <v>2013</v>
       </c>
       <c r="F412" t="s" s="2">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G412" s="3">
         <v>2013</v>
@@ -16567,19 +16554,19 @@
         <v>7</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C413" s="3">
         <v>2013</v>
       </c>
       <c r="D413" t="s" s="2">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E413" s="3">
         <v>2013</v>
       </c>
       <c r="F413" t="s" s="2">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G413" s="3">
         <v>2013</v>
@@ -16590,19 +16577,19 @@
         <v>7</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C414" s="3">
         <v>2013</v>
       </c>
       <c r="D414" t="s" s="2">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E414" s="3">
         <v>2013</v>
       </c>
       <c r="F414" t="s" s="2">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G414" s="3">
         <v>2013</v>
@@ -16613,19 +16600,19 @@
         <v>7</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C415" s="3">
         <v>2013</v>
       </c>
       <c r="D415" t="s" s="2">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E415" s="3">
         <v>2013</v>
       </c>
       <c r="F415" t="s" s="2">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="G415" s="3">
         <v>2013</v>
@@ -16636,19 +16623,19 @@
         <v>7</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C416" s="3">
         <v>2013</v>
       </c>
       <c r="D416" t="s" s="2">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E416" s="3">
         <v>2013</v>
       </c>
       <c r="F416" t="s" s="2">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G416" s="3">
         <v>2013</v>
@@ -16659,19 +16646,19 @@
         <v>7</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C417" s="3">
         <v>2013</v>
       </c>
       <c r="D417" t="s" s="2">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E417" s="3">
         <v>2013</v>
       </c>
       <c r="F417" t="s" s="2">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G417" s="3">
         <v>2013</v>
@@ -16682,19 +16669,19 @@
         <v>7</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C418" s="3">
         <v>2013</v>
       </c>
       <c r="D418" t="s" s="2">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E418" s="3">
         <v>2013</v>
       </c>
       <c r="F418" t="s" s="2">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G418" s="3">
         <v>2013</v>
@@ -16705,19 +16692,19 @@
         <v>7</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C419" s="3">
         <v>2013</v>
       </c>
       <c r="D419" t="s" s="2">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E419" s="3">
         <v>2013</v>
       </c>
       <c r="F419" t="s" s="2">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G419" s="3">
         <v>2013</v>
@@ -16728,19 +16715,19 @@
         <v>7</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C420" s="3">
         <v>2013</v>
       </c>
       <c r="D420" t="s" s="2">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E420" s="3">
         <v>2013</v>
       </c>
       <c r="F420" t="s" s="2">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G420" s="3">
         <v>2013</v>
@@ -16751,19 +16738,19 @@
         <v>7</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C421" s="3">
         <v>2013</v>
       </c>
       <c r="D421" t="s" s="2">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E421" s="3">
         <v>2013</v>
       </c>
       <c r="F421" t="s" s="2">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G421" s="3">
         <v>2013</v>
@@ -16774,19 +16761,19 @@
         <v>7</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C422" s="3">
         <v>2013</v>
       </c>
       <c r="D422" t="s" s="2">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E422" s="3">
         <v>2013</v>
       </c>
       <c r="F422" t="s" s="2">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G422" s="3">
         <v>2013</v>
@@ -16797,19 +16784,19 @@
         <v>7</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C423" s="3">
         <v>2013</v>
       </c>
       <c r="D423" t="s" s="2">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E423" s="3">
         <v>2013</v>
       </c>
       <c r="F423" t="s" s="2">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G423" s="3">
         <v>2013</v>
@@ -16820,19 +16807,19 @@
         <v>7</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C424" s="3">
         <v>2013</v>
       </c>
       <c r="D424" t="s" s="2">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E424" s="3">
         <v>2013</v>
       </c>
       <c r="F424" t="s" s="2">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="G424" s="3">
         <v>2013</v>
@@ -16843,19 +16830,19 @@
         <v>7</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C425" s="3">
         <v>2013</v>
       </c>
       <c r="D425" t="s" s="2">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E425" s="3">
         <v>2013</v>
       </c>
       <c r="F425" t="s" s="2">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G425" s="3">
         <v>2013</v>
@@ -16866,19 +16853,19 @@
         <v>7</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C426" s="3">
         <v>2013</v>
       </c>
       <c r="D426" t="s" s="2">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E426" s="3">
         <v>2013</v>
       </c>
       <c r="F426" t="s" s="2">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G426" s="3">
         <v>2013</v>
@@ -16889,19 +16876,19 @@
         <v>7</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C427" s="3">
         <v>2013</v>
       </c>
       <c r="D427" t="s" s="2">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E427" s="3">
         <v>2013</v>
       </c>
       <c r="F427" t="s" s="2">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="G427" s="3">
         <v>2013</v>
@@ -16912,19 +16899,19 @@
         <v>7</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C428" s="3">
         <v>2013</v>
       </c>
       <c r="D428" t="s" s="2">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E428" s="3">
         <v>2013</v>
       </c>
       <c r="F428" t="s" s="2">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G428" s="3">
         <v>2013</v>
@@ -16935,19 +16922,19 @@
         <v>7</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C429" s="3">
         <v>2013</v>
       </c>
       <c r="D429" t="s" s="2">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E429" s="3">
         <v>2013</v>
       </c>
       <c r="F429" t="s" s="2">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G429" s="3">
         <v>2013</v>
@@ -16958,19 +16945,19 @@
         <v>7</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C430" s="3">
         <v>2013</v>
       </c>
       <c r="D430" t="s" s="2">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E430" s="3">
         <v>2013</v>
       </c>
       <c r="F430" t="s" s="2">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G430" s="3">
         <v>2013</v>
@@ -16981,19 +16968,19 @@
         <v>7</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C431" s="3">
         <v>2013</v>
       </c>
       <c r="D431" t="s" s="2">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E431" s="3">
         <v>2013</v>
       </c>
       <c r="F431" t="s" s="2">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G431" s="3">
         <v>2013</v>
@@ -17004,19 +16991,19 @@
         <v>7</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C432" s="3">
         <v>2013</v>
       </c>
       <c r="D432" t="s" s="2">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E432" s="3">
         <v>2013</v>
       </c>
       <c r="F432" t="s" s="2">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G432" s="3">
         <v>2013</v>
@@ -17027,19 +17014,19 @@
         <v>7</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C433" s="3">
         <v>2013</v>
       </c>
       <c r="D433" t="s" s="2">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E433" s="3">
         <v>2013</v>
       </c>
       <c r="F433" t="s" s="2">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G433" s="3">
         <v>2013</v>
@@ -17050,19 +17037,19 @@
         <v>7</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C434" s="3">
         <v>2013</v>
       </c>
       <c r="D434" t="s" s="2">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E434" s="3">
         <v>2013</v>
       </c>
       <c r="F434" t="s" s="2">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G434" s="3">
         <v>2013</v>
@@ -17073,19 +17060,19 @@
         <v>7</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C435" s="3">
         <v>2013</v>
       </c>
       <c r="D435" t="s" s="2">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E435" s="3">
         <v>2013</v>
       </c>
       <c r="F435" t="s" s="2">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G435" s="3">
         <v>2013</v>
@@ -17096,19 +17083,19 @@
         <v>7</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C436" s="3">
         <v>2013</v>
       </c>
       <c r="D436" t="s" s="2">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E436" s="3">
         <v>2013</v>
       </c>
       <c r="F436" t="s" s="2">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="G436" s="3">
         <v>2013</v>
@@ -17119,19 +17106,19 @@
         <v>11</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C437" s="3">
         <v>2013</v>
       </c>
       <c r="D437" t="s" s="2">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E437" s="3">
         <v>2013</v>
       </c>
       <c r="F437" t="s" s="2">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G437" s="3">
         <v>2013</v>
@@ -17142,19 +17129,19 @@
         <v>11</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C438" s="3">
         <v>2013</v>
       </c>
       <c r="D438" t="s" s="2">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E438" s="3">
         <v>2013</v>
       </c>
       <c r="F438" t="s" s="2">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="G438" s="3">
         <v>2013</v>
@@ -17165,19 +17152,19 @@
         <v>11</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C439" s="3">
         <v>2013</v>
       </c>
       <c r="D439" t="s" s="2">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E439" s="3">
         <v>2013</v>
       </c>
       <c r="F439" t="s" s="2">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="G439" s="3">
         <v>2013</v>
@@ -17188,19 +17175,19 @@
         <v>11</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C440" s="3">
         <v>2013</v>
       </c>
       <c r="D440" t="s" s="2">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E440" s="3">
         <v>2013</v>
       </c>
       <c r="F440" t="s" s="2">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G440" s="3">
         <v>2013</v>
@@ -17211,19 +17198,19 @@
         <v>11</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C441" s="3">
         <v>2013</v>
       </c>
       <c r="D441" t="s" s="2">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E441" s="3">
         <v>2013</v>
       </c>
       <c r="F441" t="s" s="2">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G441" s="3">
         <v>2013</v>
@@ -17234,19 +17221,19 @@
         <v>11</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C442" s="3">
         <v>2013</v>
       </c>
       <c r="D442" t="s" s="2">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E442" s="3">
         <v>2013</v>
       </c>
       <c r="F442" t="s" s="2">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G442" s="3">
         <v>2013</v>
@@ -17257,19 +17244,19 @@
         <v>11</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C443" s="3">
         <v>2013</v>
       </c>
       <c r="D443" t="s" s="2">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E443" s="3">
         <v>2013</v>
       </c>
       <c r="F443" t="s" s="2">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G443" s="3">
         <v>2013</v>
@@ -17280,19 +17267,19 @@
         <v>11</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C444" s="3">
         <v>2013</v>
       </c>
       <c r="D444" t="s" s="2">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E444" s="3">
         <v>2013</v>
       </c>
       <c r="F444" t="s" s="2">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G444" s="3">
         <v>2013</v>
@@ -17303,19 +17290,19 @@
         <v>11</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C445" s="3">
         <v>2013</v>
       </c>
       <c r="D445" t="s" s="2">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E445" s="3">
         <v>2013</v>
       </c>
       <c r="F445" t="s" s="2">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G445" s="3">
         <v>2013</v>
@@ -17326,19 +17313,19 @@
         <v>11</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C446" s="3">
         <v>2013</v>
       </c>
       <c r="D446" t="s" s="2">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E446" s="3">
         <v>2013</v>
       </c>
       <c r="F446" t="s" s="2">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G446" s="3">
         <v>2013</v>
@@ -17349,19 +17336,19 @@
         <v>11</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C447" s="3">
         <v>2013</v>
       </c>
       <c r="D447" t="s" s="2">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E447" s="3">
         <v>2013</v>
       </c>
       <c r="F447" t="s" s="2">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G447" s="3">
         <v>2013</v>
@@ -17372,19 +17359,19 @@
         <v>11</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C448" s="3">
         <v>2013</v>
       </c>
       <c r="D448" t="s" s="2">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E448" s="3">
         <v>2013</v>
       </c>
       <c r="F448" t="s" s="2">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G448" s="3">
         <v>2013</v>
@@ -17395,19 +17382,19 @@
         <v>11</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C449" s="3">
         <v>2013</v>
       </c>
       <c r="D449" t="s" s="2">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E449" s="3">
         <v>2013</v>
       </c>
       <c r="F449" t="s" s="2">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G449" s="3">
         <v>2013</v>
@@ -17418,19 +17405,19 @@
         <v>11</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C450" s="3">
         <v>2013</v>
       </c>
       <c r="D450" t="s" s="2">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E450" s="3">
         <v>2013</v>
       </c>
       <c r="F450" t="s" s="2">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G450" s="3">
         <v>2013</v>
@@ -17441,19 +17428,19 @@
         <v>11</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C451" s="3">
         <v>2013</v>
       </c>
       <c r="D451" t="s" s="2">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E451" s="3">
         <v>2013</v>
       </c>
       <c r="F451" t="s" s="2">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G451" s="3">
         <v>2013</v>
@@ -17464,19 +17451,19 @@
         <v>11</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C452" s="3">
         <v>2013</v>
       </c>
       <c r="D452" t="s" s="2">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E452" s="3">
         <v>2013</v>
       </c>
       <c r="F452" t="s" s="2">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G452" s="3">
         <v>2013</v>
@@ -17487,19 +17474,19 @@
         <v>11</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C453" s="3">
         <v>2013</v>
       </c>
       <c r="D453" t="s" s="2">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E453" s="3">
         <v>2013</v>
       </c>
       <c r="F453" t="s" s="2">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G453" s="3">
         <v>2013</v>
@@ -17510,19 +17497,19 @@
         <v>11</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C454" s="3">
         <v>2013</v>
       </c>
       <c r="D454" t="s" s="2">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E454" s="3">
         <v>2013</v>
       </c>
       <c r="F454" t="s" s="2">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G454" s="3">
         <v>2013</v>
@@ -17533,19 +17520,19 @@
         <v>11</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C455" s="3">
         <v>2013</v>
       </c>
       <c r="D455" t="s" s="2">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E455" s="3">
         <v>2013</v>
       </c>
       <c r="F455" t="s" s="2">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G455" s="3">
         <v>2013</v>
@@ -17556,19 +17543,19 @@
         <v>11</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C456" s="3">
         <v>2013</v>
       </c>
       <c r="D456" t="s" s="2">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E456" s="3">
         <v>2013</v>
       </c>
       <c r="F456" t="s" s="2">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G456" s="3">
         <v>2013</v>
@@ -17579,19 +17566,19 @@
         <v>11</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C457" s="3">
         <v>2013</v>
       </c>
       <c r="D457" t="s" s="2">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E457" s="3">
         <v>2013</v>
       </c>
       <c r="F457" t="s" s="2">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G457" s="3">
         <v>2013</v>
@@ -17602,19 +17589,19 @@
         <v>11</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C458" s="3">
         <v>2013</v>
       </c>
       <c r="D458" t="s" s="2">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E458" s="3">
         <v>2013</v>
       </c>
       <c r="F458" t="s" s="2">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G458" s="3">
         <v>2013</v>
@@ -17625,19 +17612,19 @@
         <v>11</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C459" s="3">
         <v>2013</v>
       </c>
       <c r="D459" t="s" s="2">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E459" s="3">
         <v>2013</v>
       </c>
       <c r="F459" t="s" s="2">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G459" s="3">
         <v>2013</v>
@@ -17648,19 +17635,19 @@
         <v>11</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C460" s="3">
         <v>2013</v>
       </c>
       <c r="D460" t="s" s="2">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E460" s="3">
         <v>2013</v>
       </c>
       <c r="F460" t="s" s="2">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G460" s="3">
         <v>2013</v>
@@ -17671,19 +17658,19 @@
         <v>11</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C461" s="3">
         <v>2013</v>
       </c>
       <c r="D461" t="s" s="2">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E461" s="3">
         <v>2013</v>
       </c>
       <c r="F461" t="s" s="2">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G461" s="3">
         <v>2013</v>
@@ -17694,19 +17681,19 @@
         <v>11</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C462" s="3">
         <v>2013</v>
       </c>
       <c r="D462" t="s" s="2">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E462" s="3">
         <v>2013</v>
       </c>
       <c r="F462" t="s" s="2">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G462" s="3">
         <v>2013</v>
@@ -17717,19 +17704,19 @@
         <v>11</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C463" s="3">
         <v>2013</v>
       </c>
       <c r="D463" t="s" s="2">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E463" s="3">
         <v>2013</v>
       </c>
       <c r="F463" t="s" s="2">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G463" s="3">
         <v>2013</v>
@@ -17740,19 +17727,19 @@
         <v>11</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C464" s="3">
         <v>2013</v>
       </c>
       <c r="D464" t="s" s="2">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E464" s="3">
         <v>2013</v>
       </c>
       <c r="F464" t="s" s="2">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G464" s="3">
         <v>2013</v>
@@ -17763,19 +17750,19 @@
         <v>11</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C465" s="3">
         <v>2013</v>
       </c>
       <c r="D465" t="s" s="2">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="E465" s="3">
         <v>2013</v>
       </c>
       <c r="F465" t="s" s="2">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G465" s="3">
         <v>2013</v>
@@ -17786,19 +17773,19 @@
         <v>11</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C466" s="3">
         <v>2013</v>
       </c>
       <c r="D466" t="s" s="2">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E466" s="3">
         <v>2013</v>
       </c>
       <c r="F466" t="s" s="2">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G466" s="3">
         <v>2013</v>
@@ -17809,19 +17796,19 @@
         <v>11</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C467" s="3">
         <v>2013</v>
       </c>
       <c r="D467" t="s" s="2">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E467" s="3">
         <v>2013</v>
       </c>
       <c r="F467" t="s" s="2">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G467" s="3">
         <v>2013</v>
@@ -17832,19 +17819,19 @@
         <v>11</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C468" s="3">
         <v>2013</v>
       </c>
       <c r="D468" t="s" s="2">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E468" s="3">
         <v>2013</v>
       </c>
       <c r="F468" t="s" s="2">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G468" s="3">
         <v>2013</v>
@@ -17855,19 +17842,19 @@
         <v>7</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C469" s="3">
         <v>2014</v>
       </c>
       <c r="D469" t="s" s="2">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E469" s="3">
         <v>2014</v>
       </c>
       <c r="F469" t="s" s="2">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G469" s="3">
         <v>2014</v>
@@ -17878,19 +17865,19 @@
         <v>7</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C470" s="3">
         <v>2014</v>
       </c>
       <c r="D470" t="s" s="2">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E470" s="3">
         <v>2014</v>
       </c>
       <c r="F470" t="s" s="2">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G470" s="3">
         <v>2014</v>
@@ -17901,19 +17888,19 @@
         <v>7</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C471" s="3">
         <v>2014</v>
       </c>
       <c r="D471" t="s" s="2">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E471" s="3">
         <v>2014</v>
       </c>
       <c r="F471" t="s" s="2">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G471" s="3">
         <v>2014</v>
@@ -17924,19 +17911,19 @@
         <v>7</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C472" s="3">
         <v>2014</v>
       </c>
       <c r="D472" t="s" s="2">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E472" s="3">
         <v>2014</v>
       </c>
       <c r="F472" t="s" s="2">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G472" s="3">
         <v>2014</v>
@@ -17947,19 +17934,19 @@
         <v>7</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C473" s="3">
         <v>2014</v>
       </c>
       <c r="D473" t="s" s="2">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E473" s="3">
         <v>2014</v>
       </c>
       <c r="F473" t="s" s="2">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G473" s="3">
         <v>2014</v>
@@ -17970,19 +17957,19 @@
         <v>7</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C474" s="3">
         <v>2014</v>
       </c>
       <c r="D474" t="s" s="2">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E474" s="3">
         <v>2014</v>
       </c>
       <c r="F474" t="s" s="2">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G474" s="3">
         <v>2014</v>
@@ -17993,19 +17980,19 @@
         <v>7</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C475" s="3">
         <v>2014</v>
       </c>
       <c r="D475" t="s" s="2">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E475" s="3">
         <v>2014</v>
       </c>
       <c r="F475" t="s" s="2">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G475" s="3">
         <v>2014</v>
@@ -18016,19 +18003,19 @@
         <v>7</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C476" s="3">
         <v>2014</v>
       </c>
       <c r="D476" t="s" s="2">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E476" s="3">
         <v>2014</v>
       </c>
       <c r="F476" t="s" s="2">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G476" s="3">
         <v>2014</v>
@@ -18039,19 +18026,19 @@
         <v>7</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C477" s="3">
         <v>2014</v>
       </c>
       <c r="D477" t="s" s="2">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E477" s="3">
         <v>2014</v>
       </c>
       <c r="F477" t="s" s="2">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G477" s="3">
         <v>2014</v>
@@ -18062,19 +18049,19 @@
         <v>7</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C478" s="3">
         <v>2014</v>
       </c>
       <c r="D478" t="s" s="2">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E478" s="3">
         <v>2014</v>
       </c>
       <c r="F478" t="s" s="2">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G478" s="3">
         <v>2014</v>
@@ -18085,19 +18072,19 @@
         <v>7</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C479" s="3">
         <v>2014</v>
       </c>
       <c r="D479" t="s" s="2">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E479" s="3">
         <v>2014</v>
       </c>
       <c r="F479" t="s" s="2">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G479" s="3">
         <v>2014</v>
@@ -18108,19 +18095,19 @@
         <v>7</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C480" s="3">
         <v>2014</v>
       </c>
       <c r="D480" t="s" s="2">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E480" s="3">
         <v>2014</v>
       </c>
       <c r="F480" t="s" s="2">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="G480" s="3">
         <v>2014</v>
@@ -18131,19 +18118,19 @@
         <v>7</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C481" s="3">
         <v>2014</v>
       </c>
       <c r="D481" t="s" s="2">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E481" s="3">
         <v>2014</v>
       </c>
       <c r="F481" t="s" s="2">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G481" s="3">
         <v>2014</v>
@@ -18154,19 +18141,19 @@
         <v>7</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C482" s="3">
         <v>2014</v>
       </c>
       <c r="D482" t="s" s="2">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E482" s="3">
         <v>2014</v>
       </c>
       <c r="F482" t="s" s="2">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G482" s="3">
         <v>2014</v>
@@ -18177,19 +18164,19 @@
         <v>7</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C483" s="3">
         <v>2014</v>
       </c>
       <c r="D483" t="s" s="2">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E483" s="3">
         <v>2014</v>
       </c>
       <c r="F483" t="s" s="2">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G483" s="3">
         <v>2014</v>
@@ -18200,19 +18187,19 @@
         <v>7</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C484" s="3">
         <v>2014</v>
       </c>
       <c r="D484" t="s" s="2">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E484" s="3">
         <v>2014</v>
       </c>
       <c r="F484" t="s" s="2">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G484" s="3">
         <v>2014</v>
@@ -18223,19 +18210,19 @@
         <v>11</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C485" s="3">
         <v>2013</v>
       </c>
       <c r="D485" t="s" s="2">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E485" s="3">
         <v>2014</v>
       </c>
       <c r="F485" t="s" s="2">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="G485" s="3">
         <v>2014</v>
@@ -18246,19 +18233,19 @@
         <v>11</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C486" s="3">
         <v>2014</v>
       </c>
       <c r="D486" t="s" s="2">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E486" s="3">
         <v>2014</v>
       </c>
       <c r="F486" t="s" s="2">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G486" s="3">
         <v>2014</v>
@@ -18269,19 +18256,19 @@
         <v>11</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C487" s="3">
         <v>2014</v>
       </c>
       <c r="D487" t="s" s="2">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E487" s="3">
         <v>2014</v>
       </c>
       <c r="F487" t="s" s="2">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="G487" s="3">
         <v>2014</v>
@@ -18292,19 +18279,19 @@
         <v>11</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C488" s="3">
         <v>2014</v>
       </c>
       <c r="D488" t="s" s="2">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E488" s="3">
         <v>2014</v>
       </c>
       <c r="F488" t="s" s="2">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G488" s="3">
         <v>2014</v>
@@ -18315,19 +18302,19 @@
         <v>11</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C489" s="3">
         <v>2014</v>
       </c>
       <c r="D489" t="s" s="2">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E489" s="3">
         <v>2014</v>
       </c>
       <c r="F489" t="s" s="2">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G489" s="3">
         <v>2014</v>
@@ -18338,19 +18325,19 @@
         <v>11</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C490" s="3">
         <v>2014</v>
       </c>
       <c r="D490" t="s" s="2">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E490" s="3">
         <v>2014</v>
       </c>
       <c r="F490" t="s" s="2">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G490" s="3">
         <v>2014</v>
@@ -18361,19 +18348,19 @@
         <v>11</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C491" s="3">
         <v>2014</v>
       </c>
       <c r="D491" t="s" s="2">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E491" s="3">
         <v>2014</v>
       </c>
       <c r="F491" t="s" s="2">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G491" s="3">
         <v>2014</v>
@@ -18384,19 +18371,19 @@
         <v>11</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C492" s="3">
         <v>2014</v>
       </c>
       <c r="D492" t="s" s="2">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E492" s="3">
         <v>2014</v>
       </c>
       <c r="F492" t="s" s="2">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G492" s="3">
         <v>2014</v>
@@ -18407,19 +18394,19 @@
         <v>11</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C493" s="3">
         <v>2014</v>
       </c>
       <c r="D493" t="s" s="2">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E493" s="3">
         <v>2014</v>
       </c>
       <c r="F493" t="s" s="2">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="G493" s="3">
         <v>2014</v>
@@ -18430,19 +18417,19 @@
         <v>11</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C494" s="3">
         <v>2014</v>
       </c>
       <c r="D494" t="s" s="2">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E494" s="3">
         <v>2014</v>
       </c>
       <c r="F494" t="s" s="2">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="G494" s="3">
         <v>2014</v>
@@ -18453,19 +18440,19 @@
         <v>11</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C495" s="3">
         <v>2014</v>
       </c>
       <c r="D495" t="s" s="2">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E495" s="3">
         <v>2014</v>
       </c>
       <c r="F495" t="s" s="2">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G495" s="3">
         <v>2014</v>
@@ -18476,19 +18463,19 @@
         <v>11</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C496" s="3">
         <v>2014</v>
       </c>
       <c r="D496" t="s" s="2">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E496" s="3">
         <v>2014</v>
       </c>
       <c r="F496" t="s" s="2">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="G496" s="3">
         <v>2014</v>
@@ -18499,7 +18486,7 @@
         <v>11</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C497" s="3">
         <v>2014</v>
@@ -18511,7 +18498,7 @@
         <v>2014</v>
       </c>
       <c r="F497" t="s" s="2">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G497" s="3">
         <v>2014</v>
@@ -18522,19 +18509,19 @@
         <v>11</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C498" s="3">
         <v>2014</v>
       </c>
       <c r="D498" t="s" s="2">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E498" s="3">
         <v>2014</v>
       </c>
       <c r="F498" t="s" s="2">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="G498" s="3">
         <v>2014</v>
@@ -18545,19 +18532,19 @@
         <v>11</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C499" s="3">
         <v>2014</v>
       </c>
       <c r="D499" t="s" s="2">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E499" s="3">
         <v>2014</v>
       </c>
       <c r="F499" t="s" s="2">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G499" s="3">
         <v>2014</v>
@@ -18568,19 +18555,19 @@
         <v>11</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C500" s="3">
         <v>2014</v>
       </c>
       <c r="D500" t="s" s="2">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E500" s="3">
         <v>2014</v>
       </c>
       <c r="F500" t="s" s="2">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G500" s="3">
         <v>2014</v>
@@ -18591,19 +18578,19 @@
         <v>11</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C501" s="3">
         <v>2014</v>
       </c>
       <c r="D501" t="s" s="2">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E501" s="3">
         <v>2014</v>
       </c>
       <c r="F501" t="s" s="2">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G501" s="3">
         <v>2014</v>
@@ -18614,19 +18601,19 @@
         <v>11</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C502" s="3">
         <v>2014</v>
       </c>
       <c r="D502" t="s" s="2">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E502" s="3">
         <v>2014</v>
       </c>
       <c r="F502" t="s" s="2">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G502" s="3">
         <v>2014</v>
@@ -18637,19 +18624,19 @@
         <v>11</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C503" s="3">
         <v>2014</v>
       </c>
       <c r="D503" t="s" s="2">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E503" s="3">
         <v>2014</v>
       </c>
       <c r="F503" t="s" s="2">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G503" s="3">
         <v>2014</v>
@@ -18660,19 +18647,19 @@
         <v>11</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C504" s="3">
         <v>2014</v>
       </c>
       <c r="D504" t="s" s="2">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E504" s="3">
         <v>2014</v>
       </c>
       <c r="F504" t="s" s="2">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G504" s="3">
         <v>2014</v>
@@ -18683,19 +18670,19 @@
         <v>11</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C505" s="3">
         <v>2014</v>
       </c>
       <c r="D505" t="s" s="2">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E505" s="3">
         <v>2014</v>
       </c>
       <c r="F505" t="s" s="2">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G505" s="3">
         <v>2014</v>
@@ -18706,19 +18693,19 @@
         <v>11</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C506" s="3">
         <v>2014</v>
       </c>
       <c r="D506" t="s" s="2">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E506" s="3">
         <v>2014</v>
       </c>
       <c r="F506" t="s" s="2">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G506" s="3">
         <v>2014</v>
@@ -18729,19 +18716,19 @@
         <v>11</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C507" s="3">
         <v>2014</v>
       </c>
       <c r="D507" t="s" s="2">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E507" s="3">
         <v>2014</v>
       </c>
       <c r="F507" t="s" s="2">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G507" s="3">
         <v>2014</v>
@@ -18752,19 +18739,19 @@
         <v>11</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C508" s="3">
         <v>2014</v>
       </c>
       <c r="D508" t="s" s="2">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E508" s="3">
         <v>2014</v>
       </c>
       <c r="F508" t="s" s="2">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="G508" s="3">
         <v>2014</v>
@@ -18775,19 +18762,19 @@
         <v>11</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C509" s="3">
         <v>2014</v>
       </c>
       <c r="D509" t="s" s="2">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E509" s="3">
         <v>2014</v>
       </c>
       <c r="F509" t="s" s="2">
-        <v>740</v>
+        <v>1521</v>
       </c>
       <c r="G509" s="3">
         <v>2014</v>
@@ -18798,19 +18785,19 @@
         <v>11</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C510" s="3">
         <v>2014</v>
       </c>
       <c r="D510" t="s" s="2">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E510" s="3">
         <v>2014</v>
       </c>
       <c r="F510" t="s" s="2">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G510" s="3">
         <v>2014</v>
@@ -18818,25 +18805,25 @@
     </row>
     <row r="511" ht="18" customHeight="1">
       <c r="A511" t="s" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B511" t="s" s="2">
+        <v>1525</v>
+      </c>
+      <c r="C511" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D511" t="s" s="2">
         <v>1526</v>
       </c>
-      <c r="C511" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D511" t="s" s="2">
+      <c r="E511" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F511" t="s" s="2">
         <v>1527</v>
       </c>
-      <c r="E511" s="3">
-        <v>2014</v>
-      </c>
-      <c r="F511" t="s" s="2">
-        <v>1528</v>
-      </c>
       <c r="G511" s="3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="512" ht="18" customHeight="1">
@@ -18844,19 +18831,19 @@
         <v>7</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C512" s="3">
         <v>2015</v>
       </c>
       <c r="D512" t="s" s="2">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E512" s="3">
         <v>2015</v>
       </c>
       <c r="F512" t="s" s="2">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="G512" s="3">
         <v>2015</v>
@@ -18867,19 +18854,19 @@
         <v>7</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C513" s="3">
         <v>2015</v>
       </c>
       <c r="D513" t="s" s="2">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E513" s="3">
         <v>2015</v>
       </c>
       <c r="F513" t="s" s="2">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G513" s="3">
         <v>2015</v>
@@ -18890,19 +18877,19 @@
         <v>7</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C514" s="3">
         <v>2015</v>
       </c>
       <c r="D514" t="s" s="2">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E514" s="3">
         <v>2015</v>
       </c>
       <c r="F514" t="s" s="2">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="G514" s="3">
         <v>2015</v>
@@ -18913,19 +18900,19 @@
         <v>7</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C515" s="3">
         <v>2015</v>
       </c>
       <c r="D515" t="s" s="2">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E515" s="3">
         <v>2015</v>
       </c>
       <c r="F515" t="s" s="2">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="G515" s="3">
         <v>2015</v>
@@ -18936,19 +18923,19 @@
         <v>7</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C516" s="3">
         <v>2015</v>
       </c>
       <c r="D516" t="s" s="2">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E516" s="3">
         <v>2015</v>
       </c>
       <c r="F516" t="s" s="2">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G516" s="3">
         <v>2015</v>
@@ -18959,19 +18946,19 @@
         <v>7</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C517" s="3">
         <v>2015</v>
       </c>
       <c r="D517" t="s" s="2">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E517" s="3">
         <v>2015</v>
       </c>
       <c r="F517" t="s" s="2">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="G517" s="3">
         <v>2015</v>
@@ -18982,22 +18969,22 @@
         <v>7</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C518" s="3">
         <v>2015</v>
       </c>
       <c r="D518" t="s" s="2">
-        <v>1548</v>
+        <v>688</v>
       </c>
       <c r="E518" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F518" t="s" s="2">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="G518" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="519" ht="18" customHeight="1">
@@ -19005,19 +18992,19 @@
         <v>7</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="C519" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D519" t="s" s="2">
-        <v>688</v>
+        <v>1549</v>
       </c>
       <c r="E519" s="3">
         <v>2016</v>
       </c>
       <c r="F519" t="s" s="2">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="G519" s="3">
         <v>2016</v>
@@ -19028,19 +19015,19 @@
         <v>7</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C520" s="3">
         <v>2016</v>
       </c>
       <c r="D520" t="s" s="2">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E520" s="3">
         <v>2016</v>
       </c>
       <c r="F520" t="s" s="2">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="G520" s="3">
         <v>2016</v>
@@ -19051,19 +19038,19 @@
         <v>7</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C521" s="3">
         <v>2016</v>
       </c>
       <c r="D521" t="s" s="2">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E521" s="3">
         <v>2016</v>
       </c>
       <c r="F521" t="s" s="2">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G521" s="3">
         <v>2016</v>
@@ -19074,19 +19061,19 @@
         <v>7</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C522" s="3">
         <v>2016</v>
       </c>
       <c r="D522" t="s" s="2">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E522" s="3">
         <v>2016</v>
       </c>
       <c r="F522" t="s" s="2">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G522" s="3">
         <v>2016</v>
@@ -19097,19 +19084,19 @@
         <v>7</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C523" s="3">
         <v>2016</v>
       </c>
       <c r="D523" t="s" s="2">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E523" s="3">
         <v>2016</v>
       </c>
       <c r="F523" t="s" s="2">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="G523" s="3">
         <v>2016</v>
@@ -19120,19 +19107,19 @@
         <v>7</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C524" s="3">
         <v>2016</v>
       </c>
       <c r="D524" t="s" s="2">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E524" s="3">
         <v>2016</v>
       </c>
       <c r="F524" t="s" s="2">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G524" s="3">
         <v>2016</v>
@@ -19143,19 +19130,19 @@
         <v>7</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C525" s="3">
         <v>2016</v>
       </c>
       <c r="D525" t="s" s="2">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E525" s="3">
         <v>2016</v>
       </c>
       <c r="F525" t="s" s="2">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="G525" s="3">
         <v>2016</v>
@@ -19166,19 +19153,19 @@
         <v>7</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C526" s="3">
         <v>2016</v>
       </c>
       <c r="D526" t="s" s="2">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E526" s="3">
         <v>2016</v>
       </c>
       <c r="F526" t="s" s="2">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G526" s="3">
         <v>2016</v>
@@ -19189,19 +19176,19 @@
         <v>7</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C527" s="3">
         <v>2016</v>
       </c>
       <c r="D527" t="s" s="2">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E527" s="3">
         <v>2016</v>
       </c>
       <c r="F527" t="s" s="2">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="G527" s="3">
         <v>2016</v>
@@ -19212,19 +19199,19 @@
         <v>7</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C528" s="3">
         <v>2016</v>
       </c>
       <c r="D528" t="s" s="2">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E528" s="3">
         <v>2016</v>
       </c>
       <c r="F528" t="s" s="2">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="G528" s="3">
         <v>2016</v>
@@ -19235,19 +19222,19 @@
         <v>7</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C529" s="3">
         <v>2016</v>
       </c>
       <c r="D529" t="s" s="2">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E529" s="3">
         <v>2016</v>
       </c>
       <c r="F529" t="s" s="2">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="G529" s="3">
         <v>2016</v>
@@ -19258,19 +19245,19 @@
         <v>7</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C530" s="3">
         <v>2016</v>
       </c>
       <c r="D530" t="s" s="2">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E530" s="3">
         <v>2016</v>
       </c>
       <c r="F530" t="s" s="2">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="G530" s="3">
         <v>2016</v>
@@ -19281,19 +19268,19 @@
         <v>7</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C531" s="3">
         <v>2016</v>
       </c>
       <c r="D531" t="s" s="2">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E531" s="3">
         <v>2016</v>
       </c>
       <c r="F531" t="s" s="2">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="G531" s="3">
         <v>2016</v>
@@ -19304,19 +19291,19 @@
         <v>7</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C532" s="3">
         <v>2016</v>
       </c>
       <c r="D532" t="s" s="2">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E532" s="3">
         <v>2016</v>
       </c>
       <c r="F532" t="s" s="2">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="G532" s="3">
         <v>2016</v>
@@ -19327,19 +19314,19 @@
         <v>7</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C533" s="3">
         <v>2016</v>
       </c>
       <c r="D533" t="s" s="2">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E533" s="3">
         <v>2016</v>
       </c>
       <c r="F533" t="s" s="2">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="G533" s="3">
         <v>2016</v>
@@ -19350,19 +19337,19 @@
         <v>7</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C534" s="3">
         <v>2016</v>
       </c>
       <c r="D534" t="s" s="2">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E534" s="3">
         <v>2016</v>
       </c>
       <c r="F534" t="s" s="2">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="G534" s="3">
         <v>2016</v>
@@ -19373,19 +19360,19 @@
         <v>7</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C535" s="3">
         <v>2016</v>
       </c>
       <c r="D535" t="s" s="2">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E535" s="3">
         <v>2016</v>
       </c>
       <c r="F535" t="s" s="2">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G535" s="3">
         <v>2016</v>
@@ -19396,19 +19383,19 @@
         <v>7</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C536" s="3">
         <v>2016</v>
       </c>
       <c r="D536" t="s" s="2">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E536" s="3">
         <v>2016</v>
       </c>
       <c r="F536" t="s" s="2">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="G536" s="3">
         <v>2016</v>
@@ -19419,19 +19406,19 @@
         <v>7</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C537" s="3">
         <v>2016</v>
       </c>
       <c r="D537" t="s" s="2">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E537" s="3">
         <v>2016</v>
       </c>
       <c r="F537" t="s" s="2">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="G537" s="3">
         <v>2016</v>
@@ -19442,19 +19429,19 @@
         <v>7</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C538" s="3">
         <v>2016</v>
       </c>
       <c r="D538" t="s" s="2">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E538" s="3">
         <v>2016</v>
       </c>
       <c r="F538" t="s" s="2">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G538" s="3">
         <v>2016</v>
@@ -19465,19 +19452,19 @@
         <v>7</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C539" s="3">
         <v>2016</v>
       </c>
       <c r="D539" t="s" s="2">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E539" s="3">
         <v>2016</v>
       </c>
       <c r="F539" t="s" s="2">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G539" s="3">
         <v>2016</v>
@@ -19488,19 +19475,19 @@
         <v>7</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C540" s="3">
         <v>2016</v>
       </c>
       <c r="D540" t="s" s="2">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E540" s="3">
         <v>2016</v>
       </c>
       <c r="F540" t="s" s="2">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="G540" s="3">
         <v>2016</v>
@@ -19511,19 +19498,19 @@
         <v>7</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C541" s="3">
         <v>2016</v>
       </c>
       <c r="D541" t="s" s="2">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="E541" s="3">
         <v>2016</v>
       </c>
       <c r="F541" t="s" s="2">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="G541" s="3">
         <v>2016</v>
@@ -19534,19 +19521,19 @@
         <v>7</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C542" s="3">
         <v>2016</v>
       </c>
       <c r="D542" t="s" s="2">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E542" s="3">
         <v>2016</v>
       </c>
       <c r="F542" t="s" s="2">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="G542" s="3">
         <v>2016</v>
@@ -19557,19 +19544,19 @@
         <v>7</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C543" s="3">
         <v>2016</v>
       </c>
       <c r="D543" t="s" s="2">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E543" s="3">
         <v>2016</v>
       </c>
       <c r="F543" t="s" s="2">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="G543" s="3">
         <v>2016</v>
@@ -19580,19 +19567,19 @@
         <v>7</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C544" s="3">
         <v>2016</v>
       </c>
       <c r="D544" t="s" s="2">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E544" s="3">
         <v>2016</v>
       </c>
       <c r="F544" t="s" s="2">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="G544" s="3">
         <v>2016</v>
@@ -19603,19 +19590,19 @@
         <v>7</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C545" s="3">
         <v>2016</v>
       </c>
       <c r="D545" t="s" s="2">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E545" s="3">
         <v>2016</v>
       </c>
       <c r="F545" t="s" s="2">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G545" s="3">
         <v>2016</v>
@@ -19626,19 +19613,19 @@
         <v>7</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C546" s="3">
         <v>2016</v>
       </c>
       <c r="D546" t="s" s="2">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E546" s="3">
         <v>2016</v>
       </c>
       <c r="F546" t="s" s="2">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G546" s="3">
         <v>2016</v>
@@ -19649,19 +19636,19 @@
         <v>7</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C547" s="3">
         <v>2016</v>
       </c>
       <c r="D547" t="s" s="2">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E547" s="3">
         <v>2016</v>
       </c>
       <c r="F547" t="s" s="2">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="G547" s="3">
         <v>2016</v>
@@ -19672,19 +19659,19 @@
         <v>7</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C548" s="3">
         <v>2016</v>
       </c>
       <c r="D548" t="s" s="2">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E548" s="3">
         <v>2016</v>
       </c>
       <c r="F548" t="s" s="2">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="G548" s="3">
         <v>2016</v>
@@ -19695,19 +19682,19 @@
         <v>7</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C549" s="3">
         <v>2016</v>
       </c>
       <c r="D549" t="s" s="2">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E549" s="3">
         <v>2016</v>
       </c>
       <c r="F549" t="s" s="2">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G549" s="3">
         <v>2016</v>
@@ -19718,19 +19705,19 @@
         <v>7</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C550" s="3">
         <v>2016</v>
       </c>
       <c r="D550" t="s" s="2">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E550" s="3">
         <v>2016</v>
       </c>
       <c r="F550" t="s" s="2">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="G550" s="3">
         <v>2016</v>
@@ -19741,19 +19728,19 @@
         <v>7</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C551" s="3">
         <v>2016</v>
       </c>
       <c r="D551" t="s" s="2">
-        <v>1646</v>
+        <v>1065</v>
       </c>
       <c r="E551" s="3">
         <v>2016</v>
       </c>
       <c r="F551" t="s" s="2">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="G551" s="3">
         <v>2016</v>
@@ -19764,19 +19751,19 @@
         <v>7</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C552" s="3">
         <v>2016</v>
       </c>
       <c r="D552" t="s" s="2">
-        <v>1066</v>
+        <v>1647</v>
       </c>
       <c r="E552" s="3">
         <v>2016</v>
       </c>
       <c r="F552" t="s" s="2">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="G552" s="3">
         <v>2016</v>
@@ -19787,19 +19774,19 @@
         <v>7</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C553" s="3">
         <v>2016</v>
       </c>
       <c r="D553" t="s" s="2">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E553" s="3">
         <v>2016</v>
       </c>
       <c r="F553" t="s" s="2">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G553" s="3">
         <v>2016</v>
@@ -19810,19 +19797,19 @@
         <v>7</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C554" s="3">
         <v>2016</v>
       </c>
       <c r="D554" t="s" s="2">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E554" s="3">
         <v>2016</v>
       </c>
       <c r="F554" t="s" s="2">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G554" s="3">
         <v>2016</v>
@@ -19833,19 +19820,19 @@
         <v>7</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C555" s="3">
         <v>2016</v>
       </c>
       <c r="D555" t="s" s="2">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E555" s="3">
         <v>2016</v>
       </c>
       <c r="F555" t="s" s="2">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="G555" s="3">
         <v>2016</v>
@@ -19856,19 +19843,19 @@
         <v>7</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C556" s="3">
         <v>2016</v>
       </c>
       <c r="D556" t="s" s="2">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E556" s="3">
         <v>2016</v>
       </c>
       <c r="F556" t="s" s="2">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G556" s="3">
         <v>2016</v>
@@ -19879,19 +19866,19 @@
         <v>7</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C557" s="3">
         <v>2016</v>
       </c>
       <c r="D557" t="s" s="2">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E557" s="3">
         <v>2016</v>
       </c>
       <c r="F557" t="s" s="2">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="G557" s="3">
         <v>2016</v>
@@ -19902,19 +19889,19 @@
         <v>7</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C558" s="3">
         <v>2016</v>
       </c>
       <c r="D558" t="s" s="2">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E558" s="3">
         <v>2016</v>
       </c>
       <c r="F558" t="s" s="2">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="G558" s="3">
         <v>2016</v>
@@ -19925,19 +19912,19 @@
         <v>7</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C559" s="3">
         <v>2016</v>
       </c>
       <c r="D559" t="s" s="2">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E559" s="3">
         <v>2016</v>
       </c>
       <c r="F559" t="s" s="2">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="G559" s="3">
         <v>2016</v>
@@ -19948,19 +19935,19 @@
         <v>7</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C560" s="3">
         <v>2016</v>
       </c>
       <c r="D560" t="s" s="2">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E560" s="3">
         <v>2016</v>
       </c>
       <c r="F560" t="s" s="2">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G560" s="3">
         <v>2016</v>
@@ -19971,19 +19958,19 @@
         <v>7</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C561" s="3">
         <v>2016</v>
       </c>
       <c r="D561" t="s" s="2">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E561" s="3">
         <v>2016</v>
       </c>
       <c r="F561" t="s" s="2">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="G561" s="3">
         <v>2016</v>
@@ -19994,19 +19981,19 @@
         <v>7</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C562" s="3">
         <v>2016</v>
       </c>
       <c r="D562" t="s" s="2">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E562" s="3">
         <v>2016</v>
       </c>
       <c r="F562" t="s" s="2">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="G562" s="3">
         <v>2016</v>
@@ -20017,19 +20004,19 @@
         <v>7</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C563" s="3">
         <v>2016</v>
       </c>
       <c r="D563" t="s" s="2">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E563" s="3">
         <v>2016</v>
       </c>
       <c r="F563" t="s" s="2">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="G563" s="3">
         <v>2016</v>
@@ -20040,19 +20027,19 @@
         <v>7</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C564" s="3">
         <v>2016</v>
       </c>
       <c r="D564" t="s" s="2">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E564" s="3">
         <v>2016</v>
       </c>
       <c r="F564" t="s" s="2">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G564" s="3">
         <v>2016</v>
@@ -20063,19 +20050,19 @@
         <v>7</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C565" s="3">
         <v>2016</v>
       </c>
       <c r="D565" t="s" s="2">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E565" s="3">
         <v>2016</v>
       </c>
       <c r="F565" t="s" s="2">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G565" s="3">
         <v>2016</v>
@@ -20086,19 +20073,19 @@
         <v>7</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C566" s="3">
         <v>2016</v>
       </c>
       <c r="D566" t="s" s="2">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E566" s="3">
         <v>2016</v>
       </c>
       <c r="F566" t="s" s="2">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G566" s="3">
         <v>2016</v>
@@ -20109,19 +20096,19 @@
         <v>7</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C567" s="3">
         <v>2016</v>
       </c>
       <c r="D567" t="s" s="2">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E567" s="3">
         <v>2016</v>
       </c>
       <c r="F567" t="s" s="2">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="G567" s="3">
         <v>2016</v>
@@ -20132,19 +20119,19 @@
         <v>7</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C568" s="3">
         <v>2016</v>
       </c>
       <c r="D568" t="s" s="2">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E568" s="3">
         <v>2016</v>
       </c>
       <c r="F568" t="s" s="2">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="G568" s="3">
         <v>2016</v>
@@ -20155,19 +20142,19 @@
         <v>7</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C569" s="3">
         <v>2016</v>
       </c>
       <c r="D569" t="s" s="2">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E569" s="3">
         <v>2016</v>
       </c>
       <c r="F569" t="s" s="2">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="G569" s="3">
         <v>2016</v>
@@ -20178,19 +20165,19 @@
         <v>7</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C570" s="3">
         <v>2016</v>
       </c>
       <c r="D570" t="s" s="2">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E570" s="3">
         <v>2016</v>
       </c>
       <c r="F570" t="s" s="2">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="G570" s="3">
         <v>2016</v>
@@ -20201,19 +20188,19 @@
         <v>7</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C571" s="3">
         <v>2016</v>
       </c>
       <c r="D571" t="s" s="2">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E571" s="3">
         <v>2016</v>
       </c>
       <c r="F571" t="s" s="2">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="G571" s="3">
         <v>2016</v>
@@ -20224,19 +20211,19 @@
         <v>7</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C572" s="3">
         <v>2016</v>
       </c>
       <c r="D572" t="s" s="2">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E572" s="3">
         <v>2016</v>
       </c>
       <c r="F572" t="s" s="2">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G572" s="3">
         <v>2016</v>
@@ -20247,19 +20234,19 @@
         <v>7</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C573" s="3">
         <v>2016</v>
       </c>
       <c r="D573" t="s" s="2">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E573" s="3">
         <v>2016</v>
       </c>
       <c r="F573" t="s" s="2">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="G573" s="3">
         <v>2016</v>
@@ -20270,19 +20257,19 @@
         <v>7</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C574" s="3">
         <v>2016</v>
       </c>
       <c r="D574" t="s" s="2">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E574" s="3">
         <v>2016</v>
       </c>
       <c r="F574" t="s" s="2">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="G574" s="3">
         <v>2016</v>
@@ -20293,19 +20280,19 @@
         <v>7</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C575" s="3">
         <v>2016</v>
       </c>
       <c r="D575" t="s" s="2">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E575" s="3">
         <v>2016</v>
       </c>
       <c r="F575" t="s" s="2">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G575" s="3">
         <v>2016</v>
@@ -20316,22 +20303,22 @@
         <v>7</v>
       </c>
       <c r="B576" t="s" s="2">
+        <v>1718</v>
+      </c>
+      <c r="C576" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D576" t="s" s="2">
         <v>1719</v>
       </c>
-      <c r="C576" s="3">
-        <v>2016</v>
-      </c>
-      <c r="D576" t="s" s="2">
+      <c r="E576" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F576" t="s" s="2">
         <v>1720</v>
       </c>
-      <c r="E576" s="3">
-        <v>2016</v>
-      </c>
-      <c r="F576" t="s" s="2">
-        <v>1721</v>
-      </c>
       <c r="G576" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="577" ht="18" customHeight="1">
@@ -20339,19 +20326,19 @@
         <v>7</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C577" s="3">
         <v>2017</v>
       </c>
       <c r="D577" t="s" s="2">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E577" s="3">
         <v>2017</v>
       </c>
       <c r="F577" t="s" s="2">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="G577" s="3">
         <v>2017</v>
@@ -20362,19 +20349,19 @@
         <v>7</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C578" s="3">
         <v>2017</v>
       </c>
       <c r="D578" t="s" s="2">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E578" s="3">
         <v>2017</v>
       </c>
       <c r="F578" t="s" s="2">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="G578" s="3">
         <v>2017</v>
@@ -20385,19 +20372,19 @@
         <v>7</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C579" s="3">
         <v>2017</v>
       </c>
       <c r="D579" t="s" s="2">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E579" s="3">
         <v>2017</v>
       </c>
       <c r="F579" t="s" s="2">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G579" s="3">
         <v>2017</v>
@@ -20408,19 +20395,19 @@
         <v>7</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C580" s="3">
         <v>2017</v>
       </c>
       <c r="D580" t="s" s="2">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E580" s="3">
         <v>2017</v>
       </c>
       <c r="F580" t="s" s="2">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="G580" s="3">
         <v>2017</v>
@@ -20431,19 +20418,19 @@
         <v>7</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C581" s="3">
         <v>2017</v>
       </c>
       <c r="D581" t="s" s="2">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E581" s="3">
         <v>2017</v>
       </c>
       <c r="F581" t="s" s="2">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="G581" s="3">
         <v>2017</v>
@@ -20454,19 +20441,19 @@
         <v>7</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C582" s="3">
         <v>2017</v>
       </c>
       <c r="D582" t="s" s="2">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E582" s="3">
         <v>2017</v>
       </c>
       <c r="F582" t="s" s="2">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G582" s="3">
         <v>2017</v>
@@ -20477,19 +20464,19 @@
         <v>7</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C583" s="3">
         <v>2017</v>
       </c>
       <c r="D583" t="s" s="2">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E583" s="3">
         <v>2017</v>
       </c>
       <c r="F583" t="s" s="2">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G583" s="3">
         <v>2017</v>
@@ -20500,19 +20487,19 @@
         <v>7</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C584" s="3">
         <v>2017</v>
       </c>
       <c r="D584" t="s" s="2">
-        <v>1744</v>
+        <v>601</v>
       </c>
       <c r="E584" s="3">
         <v>2017</v>
       </c>
       <c r="F584" t="s" s="2">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="G584" s="3">
         <v>2017</v>
@@ -20523,19 +20510,19 @@
         <v>7</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C585" s="3">
         <v>2017</v>
       </c>
       <c r="D585" t="s" s="2">
-        <v>601</v>
+        <v>1745</v>
       </c>
       <c r="E585" s="3">
         <v>2017</v>
       </c>
       <c r="F585" t="s" s="2">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G585" s="3">
         <v>2017</v>
@@ -20546,19 +20533,19 @@
         <v>7</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C586" s="3">
         <v>2017</v>
       </c>
       <c r="D586" t="s" s="2">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E586" s="3">
         <v>2017</v>
       </c>
       <c r="F586" t="s" s="2">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="G586" s="3">
         <v>2017</v>
@@ -20569,19 +20556,19 @@
         <v>7</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C587" s="3">
         <v>2017</v>
       </c>
       <c r="D587" t="s" s="2">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E587" s="3">
         <v>2017</v>
       </c>
       <c r="F587" t="s" s="2">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="G587" s="3">
         <v>2017</v>
@@ -20592,19 +20579,19 @@
         <v>7</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C588" s="3">
         <v>2017</v>
       </c>
       <c r="D588" t="s" s="2">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E588" s="3">
         <v>2017</v>
       </c>
       <c r="F588" t="s" s="2">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G588" s="3">
         <v>2017</v>
@@ -20615,19 +20602,19 @@
         <v>7</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C589" s="3">
         <v>2017</v>
       </c>
       <c r="D589" t="s" s="2">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E589" s="3">
         <v>2017</v>
       </c>
       <c r="F589" t="s" s="2">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="G589" s="3">
         <v>2017</v>
@@ -20638,19 +20625,19 @@
         <v>7</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C590" s="3">
         <v>2017</v>
       </c>
       <c r="D590" t="s" s="2">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E590" s="3">
         <v>2017</v>
       </c>
       <c r="F590" t="s" s="2">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="G590" s="3">
         <v>2017</v>
@@ -20661,19 +20648,19 @@
         <v>7</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C591" s="3">
         <v>2017</v>
       </c>
       <c r="D591" t="s" s="2">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E591" s="3">
         <v>2017</v>
       </c>
       <c r="F591" t="s" s="2">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G591" s="3">
         <v>2017</v>
@@ -20684,19 +20671,19 @@
         <v>7</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C592" s="3">
         <v>2017</v>
       </c>
       <c r="D592" t="s" s="2">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E592" s="3">
         <v>2017</v>
       </c>
       <c r="F592" t="s" s="2">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G592" s="3">
         <v>2017</v>
@@ -20707,19 +20694,19 @@
         <v>7</v>
       </c>
       <c r="B593" t="s" s="2">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C593" s="3">
         <v>2017</v>
       </c>
       <c r="D593" t="s" s="2">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E593" s="3">
         <v>2017</v>
       </c>
       <c r="F593" t="s" s="2">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G593" s="3">
         <v>2017</v>
@@ -20730,19 +20717,19 @@
         <v>7</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C594" s="3">
         <v>2017</v>
       </c>
       <c r="D594" t="s" s="2">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E594" s="3">
         <v>2017</v>
       </c>
       <c r="F594" t="s" s="2">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="G594" s="3">
         <v>2017</v>
@@ -20753,19 +20740,19 @@
         <v>7</v>
       </c>
       <c r="B595" t="s" s="2">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C595" s="3">
         <v>2017</v>
       </c>
       <c r="D595" t="s" s="2">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E595" s="3">
         <v>2017</v>
       </c>
       <c r="F595" t="s" s="2">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="G595" s="3">
         <v>2017</v>
@@ -20776,19 +20763,19 @@
         <v>7</v>
       </c>
       <c r="B596" t="s" s="2">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C596" s="3">
         <v>2017</v>
       </c>
       <c r="D596" t="s" s="2">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E596" s="3">
         <v>2017</v>
       </c>
       <c r="F596" t="s" s="2">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G596" s="3">
         <v>2017</v>
@@ -20799,19 +20786,19 @@
         <v>7</v>
       </c>
       <c r="B597" t="s" s="2">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C597" s="3">
         <v>2017</v>
       </c>
       <c r="D597" t="s" s="2">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E597" s="3">
         <v>2017</v>
       </c>
       <c r="F597" t="s" s="2">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G597" s="3">
         <v>2017</v>
@@ -20822,19 +20809,19 @@
         <v>7</v>
       </c>
       <c r="B598" t="s" s="2">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C598" s="3">
         <v>2017</v>
       </c>
       <c r="D598" t="s" s="2">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E598" s="3">
         <v>2017</v>
       </c>
       <c r="F598" t="s" s="2">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G598" s="3">
         <v>2017</v>
@@ -20845,19 +20832,19 @@
         <v>7</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C599" s="3">
         <v>2017</v>
       </c>
       <c r="D599" t="s" s="2">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E599" s="3">
         <v>2017</v>
       </c>
       <c r="F599" t="s" s="2">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="G599" s="3">
         <v>2017</v>
@@ -20868,19 +20855,19 @@
         <v>7</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C600" s="3">
         <v>2017</v>
       </c>
       <c r="D600" t="s" s="2">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E600" s="3">
         <v>2017</v>
       </c>
       <c r="F600" t="s" s="2">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="G600" s="3">
         <v>2017</v>
@@ -20891,19 +20878,19 @@
         <v>7</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C601" s="3">
         <v>2017</v>
       </c>
       <c r="D601" t="s" s="2">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E601" s="3">
         <v>2017</v>
       </c>
       <c r="F601" t="s" s="2">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G601" s="3">
         <v>2017</v>
@@ -20914,19 +20901,19 @@
         <v>7</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C602" s="3">
         <v>2017</v>
       </c>
       <c r="D602" t="s" s="2">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E602" s="3">
         <v>2017</v>
       </c>
       <c r="F602" t="s" s="2">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G602" s="3">
         <v>2017</v>
@@ -20937,19 +20924,19 @@
         <v>7</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C603" s="3">
         <v>2017</v>
       </c>
       <c r="D603" t="s" s="2">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E603" s="3">
         <v>2017</v>
       </c>
       <c r="F603" t="s" s="2">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G603" s="3">
         <v>2017</v>
@@ -20960,19 +20947,19 @@
         <v>7</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C604" s="3">
         <v>2017</v>
       </c>
       <c r="D604" t="s" s="2">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E604" s="3">
         <v>2017</v>
       </c>
       <c r="F604" t="s" s="2">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G604" s="3">
         <v>2017</v>
@@ -20983,19 +20970,19 @@
         <v>7</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C605" s="3">
         <v>2017</v>
       </c>
       <c r="D605" t="s" s="2">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E605" s="3">
         <v>2017</v>
       </c>
       <c r="F605" t="s" s="2">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="G605" s="3">
         <v>2017</v>
@@ -21006,19 +20993,19 @@
         <v>7</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C606" s="3">
         <v>2017</v>
       </c>
       <c r="D606" t="s" s="2">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E606" s="3">
         <v>2017</v>
       </c>
       <c r="F606" t="s" s="2">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="G606" s="3">
         <v>2017</v>
@@ -21029,19 +21016,19 @@
         <v>7</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C607" s="3">
         <v>2017</v>
       </c>
       <c r="D607" t="s" s="2">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E607" s="3">
         <v>2017</v>
       </c>
       <c r="F607" t="s" s="2">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="G607" s="3">
         <v>2017</v>
@@ -21052,19 +21039,19 @@
         <v>7</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C608" s="3">
         <v>2017</v>
       </c>
       <c r="D608" t="s" s="2">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E608" s="3">
         <v>2017</v>
       </c>
       <c r="F608" t="s" s="2">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G608" s="3">
         <v>2017</v>
@@ -21075,19 +21062,19 @@
         <v>7</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C609" s="3">
         <v>2017</v>
       </c>
       <c r="D609" t="s" s="2">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E609" s="3">
         <v>2017</v>
       </c>
       <c r="F609" t="s" s="2">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="G609" s="3">
         <v>2017</v>
@@ -21098,19 +21085,19 @@
         <v>7</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C610" s="3">
         <v>2017</v>
       </c>
       <c r="D610" t="s" s="2">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E610" s="3">
         <v>2017</v>
       </c>
       <c r="F610" t="s" s="2">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="G610" s="3">
         <v>2017</v>
@@ -21121,19 +21108,19 @@
         <v>7</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C611" s="3">
         <v>2017</v>
       </c>
       <c r="D611" t="s" s="2">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E611" s="3">
         <v>2017</v>
       </c>
       <c r="F611" t="s" s="2">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G611" s="3">
         <v>2017</v>
@@ -21144,19 +21131,19 @@
         <v>7</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C612" s="3">
         <v>2017</v>
       </c>
       <c r="D612" t="s" s="2">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E612" s="3">
         <v>2017</v>
       </c>
       <c r="F612" t="s" s="2">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G612" s="3">
         <v>2017</v>
@@ -21167,19 +21154,19 @@
         <v>7</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C613" s="3">
         <v>2017</v>
       </c>
       <c r="D613" t="s" s="2">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E613" s="3">
         <v>2017</v>
       </c>
       <c r="F613" t="s" s="2">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G613" s="3">
         <v>2017</v>
@@ -21190,19 +21177,19 @@
         <v>7</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C614" s="3">
         <v>2017</v>
       </c>
       <c r="D614" t="s" s="2">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E614" s="3">
         <v>2017</v>
       </c>
       <c r="F614" t="s" s="2">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G614" s="3">
         <v>2017</v>
@@ -21213,19 +21200,19 @@
         <v>7</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C615" s="3">
         <v>2017</v>
       </c>
       <c r="D615" t="s" s="2">
-        <v>1836</v>
+        <v>1377</v>
       </c>
       <c r="E615" s="3">
         <v>2017</v>
       </c>
       <c r="F615" t="s" s="2">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="G615" s="3">
         <v>2017</v>
@@ -21236,19 +21223,19 @@
         <v>7</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="C616" s="3">
         <v>2017</v>
       </c>
       <c r="D616" t="s" s="2">
-        <v>1378</v>
+        <v>1837</v>
       </c>
       <c r="E616" s="3">
         <v>2017</v>
       </c>
       <c r="F616" t="s" s="2">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="G616" s="3">
         <v>2017</v>
@@ -21259,19 +21246,19 @@
         <v>7</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C617" s="3">
         <v>2017</v>
       </c>
       <c r="D617" t="s" s="2">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E617" s="3">
         <v>2017</v>
       </c>
       <c r="F617" t="s" s="2">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="G617" s="3">
         <v>2017</v>
@@ -21282,19 +21269,19 @@
         <v>7</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C618" s="3">
         <v>2017</v>
       </c>
       <c r="D618" t="s" s="2">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E618" s="3">
         <v>2017</v>
       </c>
       <c r="F618" t="s" s="2">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="G618" s="3">
         <v>2017</v>
@@ -21305,19 +21292,19 @@
         <v>7</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C619" s="3">
         <v>2017</v>
       </c>
       <c r="D619" t="s" s="2">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E619" s="3">
         <v>2017</v>
       </c>
       <c r="F619" t="s" s="2">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G619" s="3">
         <v>2017</v>
@@ -21328,19 +21315,19 @@
         <v>7</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C620" s="3">
         <v>2017</v>
       </c>
       <c r="D620" t="s" s="2">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E620" s="3">
         <v>2017</v>
       </c>
       <c r="F620" t="s" s="2">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="G620" s="3">
         <v>2017</v>
@@ -21351,19 +21338,19 @@
         <v>7</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C621" s="3">
         <v>2017</v>
       </c>
       <c r="D621" t="s" s="2">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E621" s="3">
         <v>2017</v>
       </c>
       <c r="F621" t="s" s="2">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="G621" s="3">
         <v>2017</v>
@@ -21374,19 +21361,19 @@
         <v>7</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C622" s="3">
         <v>2017</v>
       </c>
       <c r="D622" t="s" s="2">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E622" s="3">
         <v>2017</v>
       </c>
       <c r="F622" t="s" s="2">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="G622" s="3">
         <v>2017</v>
@@ -21397,19 +21384,19 @@
         <v>7</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C623" s="3">
         <v>2017</v>
       </c>
       <c r="D623" t="s" s="2">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E623" s="3">
         <v>2017</v>
       </c>
       <c r="F623" t="s" s="2">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="G623" s="3">
         <v>2017</v>
@@ -21420,19 +21407,19 @@
         <v>7</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C624" s="3">
         <v>2017</v>
       </c>
       <c r="D624" t="s" s="2">
-        <v>1862</v>
+        <v>1393</v>
       </c>
       <c r="E624" s="3">
         <v>2017</v>
       </c>
       <c r="F624" t="s" s="2">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="G624" s="3">
         <v>2017</v>
@@ -21443,19 +21430,19 @@
         <v>7</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="C625" s="3">
         <v>2017</v>
       </c>
       <c r="D625" t="s" s="2">
-        <v>1394</v>
+        <v>1863</v>
       </c>
       <c r="E625" s="3">
         <v>2017</v>
       </c>
       <c r="F625" t="s" s="2">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G625" s="3">
         <v>2017</v>
@@ -21466,19 +21453,19 @@
         <v>7</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>1866</v>
+        <v>1538</v>
       </c>
       <c r="C626" s="3">
         <v>2017</v>
       </c>
       <c r="D626" t="s" s="2">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="E626" s="3">
         <v>2017</v>
       </c>
       <c r="F626" t="s" s="2">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="G626" s="3">
         <v>2017</v>
@@ -21489,19 +21476,19 @@
         <v>7</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>1542</v>
+        <v>1867</v>
       </c>
       <c r="C627" s="3">
         <v>2017</v>
       </c>
       <c r="D627" t="s" s="2">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="E627" s="3">
         <v>2017</v>
       </c>
       <c r="F627" t="s" s="2">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="G627" s="3">
         <v>2017</v>
@@ -21512,19 +21499,19 @@
         <v>7</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C628" s="3">
         <v>2017</v>
       </c>
       <c r="D628" t="s" s="2">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E628" s="3">
         <v>2017</v>
       </c>
       <c r="F628" t="s" s="2">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="G628" s="3">
         <v>2017</v>
@@ -21535,22 +21522,22 @@
         <v>7</v>
       </c>
       <c r="B629" t="s" s="2">
+        <v>1873</v>
+      </c>
+      <c r="C629" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D629" t="s" s="2">
         <v>1874</v>
       </c>
-      <c r="C629" s="3">
-        <v>2017</v>
-      </c>
-      <c r="D629" t="s" s="2">
+      <c r="E629" s="3">
+        <v>2018</v>
+      </c>
+      <c r="F629" t="s" s="2">
         <v>1875</v>
       </c>
-      <c r="E629" s="3">
-        <v>2017</v>
-      </c>
-      <c r="F629" t="s" s="2">
-        <v>1876</v>
-      </c>
       <c r="G629" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="630" ht="18" customHeight="1">
@@ -21558,19 +21545,19 @@
         <v>7</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C630" s="3">
         <v>2018</v>
       </c>
       <c r="D630" t="s" s="2">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E630" s="3">
         <v>2018</v>
       </c>
       <c r="F630" t="s" s="2">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="G630" s="3">
         <v>2018</v>
@@ -21581,19 +21568,19 @@
         <v>7</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C631" s="3">
         <v>2018</v>
       </c>
       <c r="D631" t="s" s="2">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E631" s="3">
         <v>2018</v>
       </c>
       <c r="F631" t="s" s="2">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G631" s="3">
         <v>2018</v>
@@ -21604,19 +21591,19 @@
         <v>7</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C632" s="3">
         <v>2018</v>
       </c>
       <c r="D632" t="s" s="2">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E632" s="3">
         <v>2018</v>
       </c>
       <c r="F632" t="s" s="2">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="G632" s="3">
         <v>2018</v>
@@ -21627,19 +21614,19 @@
         <v>7</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="C633" s="3">
         <v>2018</v>
       </c>
       <c r="D633" t="s" s="2">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="E633" s="3">
         <v>2018</v>
       </c>
       <c r="F633" t="s" s="2">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G633" s="3">
         <v>2018</v>
@@ -21650,19 +21637,19 @@
         <v>7</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C634" s="3">
         <v>2018</v>
       </c>
       <c r="D634" t="s" s="2">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="E634" s="3">
         <v>2018</v>
       </c>
       <c r="F634" t="s" s="2">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="G634" s="3">
         <v>2018</v>
@@ -21673,19 +21660,19 @@
         <v>7</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C635" s="3">
         <v>2018</v>
       </c>
       <c r="D635" t="s" s="2">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="E635" s="3">
         <v>2018</v>
       </c>
       <c r="F635" t="s" s="2">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="G635" s="3">
         <v>2018</v>
@@ -21696,19 +21683,19 @@
         <v>7</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C636" s="3">
         <v>2018</v>
       </c>
       <c r="D636" t="s" s="2">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E636" s="3">
         <v>2018</v>
       </c>
       <c r="F636" t="s" s="2">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="G636" s="3">
         <v>2018</v>
@@ -21719,19 +21706,19 @@
         <v>7</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="C637" s="3">
         <v>2018</v>
       </c>
       <c r="D637" t="s" s="2">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="E637" s="3">
         <v>2018</v>
       </c>
       <c r="F637" t="s" s="2">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G637" s="3">
         <v>2018</v>
@@ -21742,19 +21729,19 @@
         <v>7</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C638" s="3">
         <v>2018</v>
       </c>
       <c r="D638" t="s" s="2">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="E638" s="3">
         <v>2018</v>
       </c>
       <c r="F638" t="s" s="2">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G638" s="3">
         <v>2018</v>
@@ -21765,19 +21752,19 @@
         <v>7</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C639" s="3">
         <v>2018</v>
       </c>
       <c r="D639" t="s" s="2">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="E639" s="3">
         <v>2018</v>
       </c>
       <c r="F639" t="s" s="2">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="G639" s="3">
         <v>2018</v>
@@ -21788,19 +21775,19 @@
         <v>7</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C640" s="3">
         <v>2018</v>
       </c>
       <c r="D640" t="s" s="2">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="E640" s="3">
         <v>2018</v>
       </c>
       <c r="F640" t="s" s="2">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="G640" s="3">
         <v>2018</v>
@@ -21811,19 +21798,19 @@
         <v>7</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C641" s="3">
         <v>2018</v>
       </c>
       <c r="D641" t="s" s="2">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E641" s="3">
         <v>2018</v>
       </c>
       <c r="F641" t="s" s="2">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="G641" s="3">
         <v>2018</v>
@@ -21834,19 +21821,19 @@
         <v>7</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C642" s="3">
         <v>2018</v>
       </c>
       <c r="D642" t="s" s="2">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="E642" s="3">
         <v>2018</v>
       </c>
       <c r="F642" t="s" s="2">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="G642" s="3">
         <v>2018</v>
@@ -21857,19 +21844,19 @@
         <v>7</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>1916</v>
+        <v>947</v>
       </c>
       <c r="C643" s="3">
         <v>2018</v>
       </c>
       <c r="D643" t="s" s="2">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="E643" s="3">
         <v>2018</v>
       </c>
       <c r="F643" t="s" s="2">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="G643" s="3">
         <v>2018</v>
@@ -21880,19 +21867,19 @@
         <v>7</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>948</v>
+        <v>1917</v>
       </c>
       <c r="C644" s="3">
         <v>2018</v>
       </c>
       <c r="D644" t="s" s="2">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E644" s="3">
         <v>2018</v>
       </c>
       <c r="F644" t="s" s="2">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="G644" s="3">
         <v>2018</v>
@@ -21903,19 +21890,19 @@
         <v>7</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C645" s="3">
         <v>2018</v>
       </c>
       <c r="D645" t="s" s="2">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E645" s="3">
         <v>2018</v>
       </c>
       <c r="F645" t="s" s="2">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="G645" s="3">
         <v>2018</v>
@@ -21926,19 +21913,19 @@
         <v>7</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C646" s="3">
         <v>2018</v>
       </c>
       <c r="D646" t="s" s="2">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E646" s="3">
         <v>2018</v>
       </c>
       <c r="F646" t="s" s="2">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="G646" s="3">
         <v>2018</v>
@@ -21949,19 +21936,19 @@
         <v>7</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C647" s="3">
         <v>2018</v>
       </c>
       <c r="D647" t="s" s="2">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E647" s="3">
         <v>2018</v>
       </c>
       <c r="F647" t="s" s="2">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="G647" s="3">
         <v>2018</v>
@@ -21972,19 +21959,19 @@
         <v>7</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C648" s="3">
         <v>2018</v>
       </c>
       <c r="D648" t="s" s="2">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E648" s="3">
         <v>2018</v>
       </c>
       <c r="F648" t="s" s="2">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="G648" s="3">
         <v>2018</v>
@@ -21995,19 +21982,19 @@
         <v>7</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C649" s="3">
         <v>2018</v>
       </c>
       <c r="D649" t="s" s="2">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E649" s="3">
         <v>2018</v>
       </c>
       <c r="F649" t="s" s="2">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="G649" s="3">
         <v>2018</v>
@@ -22018,19 +22005,19 @@
         <v>7</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="C650" s="3">
         <v>2018</v>
       </c>
       <c r="D650" t="s" s="2">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E650" s="3">
         <v>2018</v>
       </c>
       <c r="F650" t="s" s="2">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G650" s="3">
         <v>2018</v>
@@ -22041,19 +22028,19 @@
         <v>7</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C651" s="3">
         <v>2018</v>
       </c>
       <c r="D651" t="s" s="2">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="E651" s="3">
         <v>2018</v>
       </c>
       <c r="F651" t="s" s="2">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="G651" s="3">
         <v>2018</v>
@@ -22064,19 +22051,19 @@
         <v>7</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C652" s="3">
         <v>2018</v>
       </c>
       <c r="D652" t="s" s="2">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="E652" s="3">
         <v>2018</v>
       </c>
       <c r="F652" t="s" s="2">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G652" s="3">
         <v>2018</v>
@@ -22087,19 +22074,19 @@
         <v>7</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C653" s="3">
         <v>2018</v>
       </c>
       <c r="D653" t="s" s="2">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E653" s="3">
         <v>2018</v>
       </c>
       <c r="F653" t="s" s="2">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="G653" s="3">
         <v>2018</v>
@@ -22110,19 +22097,19 @@
         <v>7</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C654" s="3">
         <v>2018</v>
       </c>
       <c r="D654" t="s" s="2">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="E654" s="3">
         <v>2018</v>
       </c>
       <c r="F654" t="s" s="2">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G654" s="3">
         <v>2018</v>
@@ -22133,44 +22120,21 @@
         <v>7</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C655" s="3">
         <v>2018</v>
       </c>
       <c r="D655" t="s" s="2">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E655" s="3">
         <v>2018</v>
       </c>
       <c r="F655" t="s" s="2">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="G655" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="656" ht="18" customHeight="1">
-      <c r="A656" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="B656" t="s" s="2">
-        <v>1954</v>
-      </c>
-      <c r="C656" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D656" t="s" s="2">
-        <v>1955</v>
-      </c>
-      <c r="E656" s="3">
-        <v>2018</v>
-      </c>
-      <c r="F656" t="s" s="2">
-        <v>1956</v>
-      </c>
-      <c r="G656" s="3">
         <v>2018</v>
       </c>
     </row>
